--- a/faq_tributarias.xlsx
+++ b/faq_tributarias.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12 VASEbot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E615896-EB5B-4CBD-9475-AEB40B168637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Pregunta</t>
   </si>
@@ -86,13 +97,19 @@
   </si>
   <si>
     <t>D. Leg. N.° 943 – Ley del RUC</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>Verifique siempre la normativa vigente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,13 +157,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -155,11 +186,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -201,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +272,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +324,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,14 +517,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +536,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -470,8 +550,11 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -481,8 +564,11 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -492,8 +578,11 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -503,8 +592,11 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -514,8 +606,11 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -525,8 +620,11 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -536,8 +634,11 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -547,8 +648,11 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -558,8 +662,11 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -568,6 +675,9 @@
       </c>
       <c r="C11" t="s">
         <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/faq_tributarias.xlsx
+++ b/faq_tributarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12 VASEbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDD9DE2-5D50-4030-9469-EDBEFE9423C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA9E3B-ECCC-4CD5-9B2F-3FA27BEE01A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4234,18 +4234,12 @@
     <t>La reorganización debe realizarse por **razones económicas válidas** (no solo para evitar impuestos) y las empresas deben mantener una continuidad en la actividad. La operación debe ser a valor contable y los socios de la empresa original deben conservar al menos el 70% de las acciones de la nueva empresa por un mínimo de dos años.</t>
   </si>
   <si>
-    <t>¿Qué sucede con el Impuesto a la Renta si se cumplen las condiciones?</t>
-  </si>
-  <si>
     <t>Si la reorganización es tributariamente neutral, la transferencia de activos y pasivos **no genera una ganancia o pérdida patrimonial** para la empresa que se reorganiza ni para sus socios. Tampoco se aplica una retención por dividendos.</t>
   </si>
   <si>
     <t>Ley del Impuesto a la Renta, Artículo 105.</t>
   </si>
   <si>
-    <t>¿Qué sucede con el Impuesto General a las Ventas (IGV)?</t>
-  </si>
-  <si>
     <t>La reorganización **no está gravada con el IGV** si se realiza de forma neutral. La transferencia de los bienes se considera una operación fuera del ámbito del IGV, siempre que se transfiera un bloque patrimonial que permita a la nueva empresa continuar con la actividad económica.</t>
   </si>
   <si>
@@ -4265,6 +4259,12 @@
   </si>
   <si>
     <t>Si la SUNAT determina que la reorganización no cumplió con las condiciones, puede desconocer la neutralidad y considerar la transferencia de activos como una venta. Esto generaría el pago del Impuesto a la Renta sobre la ganancia patrimonial y el IGV sobre el valor de mercado de los bienes.</t>
+  </si>
+  <si>
+    <t>¿Qué sucede con el Impuesto a la Renta si se cumplen las condiciones en la reorganización de sociedades?</t>
+  </si>
+  <si>
+    <t>¿Qué sucede con el Impuesto General a las Ventas (IGV) en una reorganización de sociedades?</t>
   </si>
 </sst>
 </file>
@@ -4682,7 +4682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D534"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="A527" sqref="A527"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12108,13 +12110,13 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B531" t="s">
         <v>1401</v>
       </c>
-      <c r="B531" t="s">
+      <c r="C531" t="s">
         <v>1402</v>
-      </c>
-      <c r="C531" t="s">
-        <v>1403</v>
       </c>
       <c r="D531" t="s">
         <v>5</v>
@@ -12122,13 +12124,13 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C532" t="s">
         <v>1404</v>
-      </c>
-      <c r="B532" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C532" t="s">
-        <v>1406</v>
       </c>
       <c r="D532" t="s">
         <v>5</v>
@@ -12136,13 +12138,13 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C533" t="s">
         <v>1407</v>
-      </c>
-      <c r="B533" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1409</v>
       </c>
       <c r="D533" t="s">
         <v>5</v>
@@ -12150,10 +12152,10 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B534" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C534" t="s">
         <v>1028</v>

--- a/faq_tributarias.xlsx
+++ b/faq_tributarias.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12 VASEbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA9E3B-ECCC-4CD5-9B2F-3FA27BEE01A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E4FCA9-B11F-45C9-ACF7-E43FED7A8391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$532</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="1407">
   <si>
     <t>Pregunta</t>
   </si>
@@ -1752,25 +1755,10 @@
     <t>TUO de la Ley del Impuesto a la Renta, Artículo 50.</t>
   </si>
   <si>
-    <t>¿Cuáles son los dos sistemas para el arrastre de pérdidas?</t>
-  </si>
-  <si>
-    <t>Existen dos sistemas a elegir: el Sistema A, que permite compensar la pérdida con un máximo del 50% de la utilidad de los años siguientes, sin límite de tiempo; y el Sistema B, que permite compensar el 100% de la pérdida, pero solo por los cuatro años siguientes.</t>
-  </si>
-  <si>
     <t>¿Cuándo se debe elegir el sistema de arrastre de pérdidas?</t>
   </si>
   <si>
     <t>La elección del sistema se realiza en la declaración jurada anual del ejercicio en el que se produce la pérdida por primera vez. Una vez elegido, no se puede cambiar en los años siguientes.</t>
-  </si>
-  <si>
-    <t>¿Cuál es la ventaja del Sistema A del arrastre de pérdidas?</t>
-  </si>
-  <si>
-    <t>La principal ventaja del Sistema A es que no tiene límite de tiempo para compensar la pérdida, lo que es útil para empresas que prevén que no tendrán utilidades en el corto plazo. Sin embargo, solo se puede compensar la mitad de la utilidad anual.</t>
-  </si>
-  <si>
-    <t>Análisis tributario comparativo.</t>
   </si>
   <si>
     <t>¿Qué es el 'Principio de Causalidad'?</t>
@@ -4680,10 +4668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D534"/>
+  <dimension ref="A1:D532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="A527" sqref="A527"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7566,7 +7554,7 @@
         <v>578</v>
       </c>
       <c r="C206" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D206" t="s">
         <v>5</v>
@@ -7580,7 +7568,7 @@
         <v>580</v>
       </c>
       <c r="C207" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="D207" t="s">
         <v>5</v>
@@ -7588,13 +7576,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>581</v>
+      </c>
+      <c r="B208" t="s">
         <v>582</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>583</v>
-      </c>
-      <c r="C208" t="s">
-        <v>558</v>
       </c>
       <c r="D208" t="s">
         <v>5</v>
@@ -7608,7 +7596,7 @@
         <v>585</v>
       </c>
       <c r="C209" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="D209" t="s">
         <v>5</v>
@@ -7616,13 +7604,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B210" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C210" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D210" t="s">
         <v>5</v>
@@ -7630,13 +7618,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>590</v>
+      </c>
+      <c r="B211" t="s">
+        <v>591</v>
+      </c>
+      <c r="C211" t="s">
         <v>589</v>
-      </c>
-      <c r="B211" t="s">
-        <v>590</v>
-      </c>
-      <c r="C211" t="s">
-        <v>591</v>
       </c>
       <c r="D211" t="s">
         <v>5</v>
@@ -7678,7 +7666,7 @@
         <v>598</v>
       </c>
       <c r="C214" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D214" t="s">
         <v>5</v>
@@ -7686,13 +7674,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>599</v>
+      </c>
+      <c r="B215" t="s">
         <v>600</v>
       </c>
-      <c r="B215" t="s">
-        <v>601</v>
-      </c>
       <c r="C215" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D215" t="s">
         <v>5</v>
@@ -7700,13 +7688,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>601</v>
+      </c>
+      <c r="B216" t="s">
         <v>602</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>603</v>
-      </c>
-      <c r="C216" t="s">
-        <v>599</v>
       </c>
       <c r="D216" t="s">
         <v>5</v>
@@ -7720,7 +7708,7 @@
         <v>605</v>
       </c>
       <c r="C217" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D217" t="s">
         <v>5</v>
@@ -7728,13 +7716,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B218" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C218" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D218" t="s">
         <v>5</v>
@@ -7748,7 +7736,7 @@
         <v>610</v>
       </c>
       <c r="C219" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D219" t="s">
         <v>5</v>
@@ -7756,13 +7744,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>611</v>
+      </c>
+      <c r="B220" t="s">
         <v>612</v>
       </c>
-      <c r="B220" t="s">
-        <v>613</v>
-      </c>
       <c r="C220" t="s">
-        <v>608</v>
+        <v>205</v>
       </c>
       <c r="D220" t="s">
         <v>5</v>
@@ -7770,13 +7758,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>613</v>
+      </c>
+      <c r="B221" t="s">
         <v>614</v>
       </c>
-      <c r="B221" t="s">
-        <v>615</v>
-      </c>
       <c r="C221" t="s">
-        <v>608</v>
+        <v>218</v>
       </c>
       <c r="D221" t="s">
         <v>5</v>
@@ -7784,13 +7772,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>615</v>
+      </c>
+      <c r="B222" t="s">
         <v>616</v>
       </c>
-      <c r="B222" t="s">
-        <v>617</v>
-      </c>
       <c r="C222" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D222" t="s">
         <v>5</v>
@@ -7798,13 +7786,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>617</v>
+      </c>
+      <c r="B223" t="s">
         <v>618</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>619</v>
-      </c>
-      <c r="C223" t="s">
-        <v>218</v>
       </c>
       <c r="D223" t="s">
         <v>5</v>
@@ -7818,7 +7806,7 @@
         <v>621</v>
       </c>
       <c r="C224" t="s">
-        <v>218</v>
+        <v>622</v>
       </c>
       <c r="D224" t="s">
         <v>5</v>
@@ -7826,13 +7814,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B225" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C225" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D225" t="s">
         <v>5</v>
@@ -7860,7 +7848,7 @@
         <v>629</v>
       </c>
       <c r="C227" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D227" t="s">
         <v>5</v>
@@ -7874,7 +7862,7 @@
         <v>631</v>
       </c>
       <c r="C228" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="D228" t="s">
         <v>5</v>
@@ -7882,13 +7870,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>632</v>
+      </c>
+      <c r="B229" t="s">
         <v>633</v>
       </c>
-      <c r="B229" t="s">
-        <v>634</v>
-      </c>
       <c r="C229" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="D229" t="s">
         <v>5</v>
@@ -7896,13 +7884,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>634</v>
+      </c>
+      <c r="B230" t="s">
         <v>635</v>
       </c>
-      <c r="B230" t="s">
-        <v>636</v>
-      </c>
       <c r="C230" t="s">
-        <v>611</v>
+        <v>558</v>
       </c>
       <c r="D230" t="s">
         <v>5</v>
@@ -7910,13 +7898,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>636</v>
+      </c>
+      <c r="B231" t="s">
         <v>637</v>
       </c>
-      <c r="B231" t="s">
-        <v>638</v>
-      </c>
       <c r="C231" t="s">
-        <v>611</v>
+        <v>558</v>
       </c>
       <c r="D231" t="s">
         <v>5</v>
@@ -7924,10 +7912,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>638</v>
+      </c>
+      <c r="B232" t="s">
         <v>639</v>
-      </c>
-      <c r="B232" t="s">
-        <v>640</v>
       </c>
       <c r="C232" t="s">
         <v>558</v>
@@ -7938,13 +7926,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>640</v>
+      </c>
+      <c r="B233" t="s">
         <v>641</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>642</v>
-      </c>
-      <c r="C233" t="s">
-        <v>558</v>
       </c>
       <c r="D233" t="s">
         <v>5</v>
@@ -7958,7 +7946,7 @@
         <v>644</v>
       </c>
       <c r="C234" t="s">
-        <v>558</v>
+        <v>645</v>
       </c>
       <c r="D234" t="s">
         <v>5</v>
@@ -7966,13 +7954,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B235" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C235" t="s">
-        <v>647</v>
+        <v>558</v>
       </c>
       <c r="D235" t="s">
         <v>5</v>
@@ -8000,7 +7988,7 @@
         <v>652</v>
       </c>
       <c r="C237" t="s">
-        <v>558</v>
+        <v>653</v>
       </c>
       <c r="D237" t="s">
         <v>5</v>
@@ -8008,13 +7996,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B238" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C238" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D238" t="s">
         <v>5</v>
@@ -8022,13 +8010,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B239" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C239" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D239" t="s">
         <v>5</v>
@@ -8036,13 +8024,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>660</v>
+      </c>
+      <c r="B240" t="s">
+        <v>661</v>
+      </c>
+      <c r="C240" t="s">
         <v>659</v>
-      </c>
-      <c r="B240" t="s">
-        <v>660</v>
-      </c>
-      <c r="C240" t="s">
-        <v>661</v>
       </c>
       <c r="D240" t="s">
         <v>5</v>
@@ -8070,7 +8058,7 @@
         <v>666</v>
       </c>
       <c r="C242" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D242" t="s">
         <v>5</v>
@@ -8078,13 +8066,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B243" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C243" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D243" t="s">
         <v>5</v>
@@ -8112,7 +8100,7 @@
         <v>674</v>
       </c>
       <c r="C245" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="D245" t="s">
         <v>5</v>
@@ -8120,13 +8108,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B246" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C246" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D246" t="s">
         <v>5</v>
@@ -8134,13 +8122,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B247" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C247" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D247" t="s">
         <v>5</v>
@@ -8148,13 +8136,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B248" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C248" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D248" t="s">
         <v>5</v>
@@ -8162,13 +8150,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B249" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C249" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D249" t="s">
         <v>5</v>
@@ -8176,13 +8164,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B250" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C250" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D250" t="s">
         <v>5</v>
@@ -8190,13 +8178,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B251" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C251" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D251" t="s">
         <v>5</v>
@@ -8204,13 +8192,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B252" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C252" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D252" t="s">
         <v>5</v>
@@ -8218,13 +8206,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B253" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C253" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D253" t="s">
         <v>5</v>
@@ -8252,7 +8240,7 @@
         <v>703</v>
       </c>
       <c r="C255" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="D255" t="s">
         <v>5</v>
@@ -8260,13 +8248,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B256" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C256" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D256" t="s">
         <v>5</v>
@@ -8274,13 +8262,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B257" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C257" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D257" t="s">
         <v>5</v>
@@ -8288,13 +8276,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>711</v>
+      </c>
+      <c r="B258" t="s">
+        <v>712</v>
+      </c>
+      <c r="C258" t="s">
         <v>710</v>
-      </c>
-      <c r="B258" t="s">
-        <v>711</v>
-      </c>
-      <c r="C258" t="s">
-        <v>712</v>
       </c>
       <c r="D258" t="s">
         <v>5</v>
@@ -8322,7 +8310,7 @@
         <v>717</v>
       </c>
       <c r="C260" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D260" t="s">
         <v>5</v>
@@ -8330,13 +8318,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B261" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C261" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D261" t="s">
         <v>5</v>
@@ -8344,13 +8332,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B262" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C262" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D262" t="s">
         <v>5</v>
@@ -8358,13 +8346,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B263" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C263" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D263" t="s">
         <v>5</v>
@@ -8372,13 +8360,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B264" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C264" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D264" t="s">
         <v>5</v>
@@ -8386,13 +8374,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B265" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C265" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D265" t="s">
         <v>5</v>
@@ -8400,13 +8388,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B266" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C266" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D266" t="s">
         <v>5</v>
@@ -8414,13 +8402,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B267" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C267" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D267" t="s">
         <v>5</v>
@@ -8428,13 +8416,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B268" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C268" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D268" t="s">
         <v>5</v>
@@ -8442,13 +8430,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B269" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C269" t="s">
-        <v>744</v>
+        <v>558</v>
       </c>
       <c r="D269" t="s">
         <v>5</v>
@@ -8476,7 +8464,7 @@
         <v>749</v>
       </c>
       <c r="C271" t="s">
-        <v>558</v>
+        <v>750</v>
       </c>
       <c r="D271" t="s">
         <v>5</v>
@@ -8484,13 +8472,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B272" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C272" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D272" t="s">
         <v>5</v>
@@ -8498,13 +8486,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B273" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C273" t="s">
-        <v>755</v>
+        <v>606</v>
       </c>
       <c r="D273" t="s">
         <v>5</v>
@@ -8532,7 +8520,7 @@
         <v>760</v>
       </c>
       <c r="C275" t="s">
-        <v>611</v>
+        <v>761</v>
       </c>
       <c r="D275" t="s">
         <v>5</v>
@@ -8540,13 +8528,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B276" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C276" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D276" t="s">
         <v>5</v>
@@ -8554,13 +8542,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B277" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C277" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D277" t="s">
         <v>5</v>
@@ -8568,13 +8556,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B278" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C278" t="s">
-        <v>769</v>
+        <v>558</v>
       </c>
       <c r="D278" t="s">
         <v>5</v>
@@ -8588,7 +8576,7 @@
         <v>771</v>
       </c>
       <c r="C279" t="s">
-        <v>772</v>
+        <v>558</v>
       </c>
       <c r="D279" t="s">
         <v>5</v>
@@ -8596,10 +8584,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>772</v>
+      </c>
+      <c r="B280" t="s">
         <v>773</v>
-      </c>
-      <c r="B280" t="s">
-        <v>774</v>
       </c>
       <c r="C280" t="s">
         <v>558</v>
@@ -8610,13 +8598,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>774</v>
+      </c>
+      <c r="B281" t="s">
         <v>775</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>776</v>
-      </c>
-      <c r="C281" t="s">
-        <v>558</v>
       </c>
       <c r="D281" t="s">
         <v>5</v>
@@ -8630,7 +8618,7 @@
         <v>778</v>
       </c>
       <c r="C282" t="s">
-        <v>558</v>
+        <v>779</v>
       </c>
       <c r="D282" t="s">
         <v>5</v>
@@ -8638,13 +8626,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B283" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C283" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D283" t="s">
         <v>5</v>
@@ -8652,13 +8640,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B284" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C284" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D284" t="s">
         <v>5</v>
@@ -8666,13 +8654,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B285" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C285" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="D285" t="s">
         <v>5</v>
@@ -8686,7 +8674,7 @@
         <v>789</v>
       </c>
       <c r="C286" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="D286" t="s">
         <v>5</v>
@@ -8694,13 +8682,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>790</v>
+      </c>
+      <c r="B287" t="s">
         <v>791</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>792</v>
-      </c>
-      <c r="C287" t="s">
-        <v>769</v>
       </c>
       <c r="D287" t="s">
         <v>5</v>
@@ -8714,7 +8702,7 @@
         <v>794</v>
       </c>
       <c r="C288" t="s">
-        <v>763</v>
+        <v>795</v>
       </c>
       <c r="D288" t="s">
         <v>5</v>
@@ -8722,13 +8710,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B289" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C289" t="s">
-        <v>797</v>
+        <v>558</v>
       </c>
       <c r="D289" t="s">
         <v>5</v>
@@ -8756,7 +8744,7 @@
         <v>802</v>
       </c>
       <c r="C291" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="D291" t="s">
         <v>5</v>
@@ -8784,7 +8772,7 @@
         <v>807</v>
       </c>
       <c r="C293" t="s">
-        <v>599</v>
+        <v>805</v>
       </c>
       <c r="D293" t="s">
         <v>5</v>
@@ -8812,7 +8800,7 @@
         <v>812</v>
       </c>
       <c r="C295" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D295" t="s">
         <v>5</v>
@@ -8820,13 +8808,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B296" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C296" t="s">
-        <v>815</v>
+        <v>574</v>
       </c>
       <c r="D296" t="s">
         <v>5</v>
@@ -8840,7 +8828,7 @@
         <v>817</v>
       </c>
       <c r="C297" t="s">
-        <v>818</v>
+        <v>574</v>
       </c>
       <c r="D297" t="s">
         <v>5</v>
@@ -8848,10 +8836,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>818</v>
+      </c>
+      <c r="B298" t="s">
         <v>819</v>
-      </c>
-      <c r="B298" t="s">
-        <v>820</v>
       </c>
       <c r="C298" t="s">
         <v>574</v>
@@ -8862,10 +8850,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>820</v>
+      </c>
+      <c r="B299" t="s">
         <v>821</v>
-      </c>
-      <c r="B299" t="s">
-        <v>822</v>
       </c>
       <c r="C299" t="s">
         <v>574</v>
@@ -8876,13 +8864,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>822</v>
+      </c>
+      <c r="B300" t="s">
         <v>823</v>
       </c>
-      <c r="B300" t="s">
-        <v>824</v>
-      </c>
       <c r="C300" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="D300" t="s">
         <v>5</v>
@@ -8890,13 +8878,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>824</v>
+      </c>
+      <c r="B301" t="s">
         <v>825</v>
       </c>
-      <c r="B301" t="s">
-        <v>826</v>
-      </c>
       <c r="C301" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="D301" t="s">
         <v>5</v>
@@ -8904,13 +8892,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>826</v>
+      </c>
+      <c r="B302" t="s">
         <v>827</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>828</v>
-      </c>
-      <c r="C302" t="s">
-        <v>632</v>
       </c>
       <c r="D302" t="s">
         <v>5</v>
@@ -8918,13 +8906,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>632</v>
+      </c>
+      <c r="B303" t="s">
         <v>829</v>
       </c>
-      <c r="B303" t="s">
-        <v>830</v>
-      </c>
       <c r="C303" t="s">
-        <v>632</v>
+        <v>828</v>
       </c>
       <c r="D303" t="s">
         <v>5</v>
@@ -8932,13 +8920,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>830</v>
+      </c>
+      <c r="B304" t="s">
         <v>831</v>
       </c>
-      <c r="B304" t="s">
-        <v>832</v>
-      </c>
       <c r="C304" t="s">
-        <v>833</v>
+        <v>627</v>
       </c>
       <c r="D304" t="s">
         <v>5</v>
@@ -8946,13 +8934,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>637</v>
+        <v>832</v>
       </c>
       <c r="B305" t="s">
+        <v>833</v>
+      </c>
+      <c r="C305" t="s">
         <v>834</v>
-      </c>
-      <c r="C305" t="s">
-        <v>833</v>
       </c>
       <c r="D305" t="s">
         <v>5</v>
@@ -8966,7 +8954,7 @@
         <v>836</v>
       </c>
       <c r="C306" t="s">
-        <v>632</v>
+        <v>739</v>
       </c>
       <c r="D306" t="s">
         <v>5</v>
@@ -8980,7 +8968,7 @@
         <v>838</v>
       </c>
       <c r="C307" t="s">
-        <v>839</v>
+        <v>739</v>
       </c>
       <c r="D307" t="s">
         <v>5</v>
@@ -8988,13 +8976,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>839</v>
+      </c>
+      <c r="B308" t="s">
         <v>840</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
         <v>841</v>
-      </c>
-      <c r="C308" t="s">
-        <v>744</v>
       </c>
       <c r="D308" t="s">
         <v>5</v>
@@ -9008,7 +8996,7 @@
         <v>843</v>
       </c>
       <c r="C309" t="s">
-        <v>744</v>
+        <v>841</v>
       </c>
       <c r="D309" t="s">
         <v>5</v>
@@ -9022,7 +9010,7 @@
         <v>845</v>
       </c>
       <c r="C310" t="s">
-        <v>846</v>
+        <v>558</v>
       </c>
       <c r="D310" t="s">
         <v>5</v>
@@ -9030,13 +9018,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>846</v>
+      </c>
+      <c r="B311" t="s">
         <v>847</v>
       </c>
-      <c r="B311" t="s">
-        <v>848</v>
-      </c>
       <c r="C311" t="s">
-        <v>846</v>
+        <v>566</v>
       </c>
       <c r="D311" t="s">
         <v>5</v>
@@ -9044,13 +9032,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>848</v>
+      </c>
+      <c r="B312" t="s">
         <v>849</v>
       </c>
-      <c r="B312" t="s">
-        <v>850</v>
-      </c>
       <c r="C312" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="D312" t="s">
         <v>5</v>
@@ -9058,13 +9046,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>850</v>
+      </c>
+      <c r="B313" t="s">
         <v>851</v>
       </c>
-      <c r="B313" t="s">
+      <c r="C313" t="s">
         <v>852</v>
-      </c>
-      <c r="C313" t="s">
-        <v>566</v>
       </c>
       <c r="D313" t="s">
         <v>5</v>
@@ -9078,7 +9066,7 @@
         <v>854</v>
       </c>
       <c r="C314" t="s">
-        <v>566</v>
+        <v>852</v>
       </c>
       <c r="D314" t="s">
         <v>5</v>
@@ -9106,7 +9094,7 @@
         <v>859</v>
       </c>
       <c r="C316" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="D316" t="s">
         <v>5</v>
@@ -9134,7 +9122,7 @@
         <v>864</v>
       </c>
       <c r="C318" t="s">
-        <v>857</v>
+        <v>571</v>
       </c>
       <c r="D318" t="s">
         <v>5</v>
@@ -9148,7 +9136,7 @@
         <v>866</v>
       </c>
       <c r="C319" t="s">
-        <v>867</v>
+        <v>571</v>
       </c>
       <c r="D319" t="s">
         <v>5</v>
@@ -9156,13 +9144,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>867</v>
+      </c>
+      <c r="B320" t="s">
         <v>868</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>869</v>
-      </c>
-      <c r="C320" t="s">
-        <v>571</v>
       </c>
       <c r="D320" t="s">
         <v>5</v>
@@ -9190,7 +9178,7 @@
         <v>873</v>
       </c>
       <c r="C322" t="s">
-        <v>874</v>
+        <v>558</v>
       </c>
       <c r="D322" t="s">
         <v>5</v>
@@ -9198,13 +9186,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>874</v>
+      </c>
+      <c r="B323" t="s">
         <v>875</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>876</v>
-      </c>
-      <c r="C323" t="s">
-        <v>571</v>
       </c>
       <c r="D323" t="s">
         <v>5</v>
@@ -9218,7 +9206,7 @@
         <v>878</v>
       </c>
       <c r="C324" t="s">
-        <v>558</v>
+        <v>879</v>
       </c>
       <c r="D324" t="s">
         <v>5</v>
@@ -9226,13 +9214,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B325" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C325" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D325" t="s">
         <v>5</v>
@@ -9240,13 +9228,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B326" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C326" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D326" t="s">
         <v>5</v>
@@ -9254,13 +9242,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B327" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C327" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D327" t="s">
         <v>5</v>
@@ -9268,13 +9256,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>889</v>
+      </c>
+      <c r="B328" t="s">
+        <v>890</v>
+      </c>
+      <c r="C328" t="s">
         <v>888</v>
-      </c>
-      <c r="B328" t="s">
-        <v>889</v>
-      </c>
-      <c r="C328" t="s">
-        <v>890</v>
       </c>
       <c r="D328" t="s">
         <v>5</v>
@@ -9288,7 +9276,7 @@
         <v>892</v>
       </c>
       <c r="C329" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D329" t="s">
         <v>5</v>
@@ -9296,13 +9284,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>893</v>
+      </c>
+      <c r="B330" t="s">
         <v>894</v>
       </c>
-      <c r="B330" t="s">
-        <v>895</v>
-      </c>
       <c r="C330" t="s">
-        <v>893</v>
+        <v>606</v>
       </c>
       <c r="D330" t="s">
         <v>5</v>
@@ -9310,13 +9298,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>895</v>
+      </c>
+      <c r="B331" t="s">
         <v>896</v>
       </c>
-      <c r="B331" t="s">
-        <v>897</v>
-      </c>
       <c r="C331" t="s">
-        <v>890</v>
+        <v>606</v>
       </c>
       <c r="D331" t="s">
         <v>5</v>
@@ -9324,13 +9312,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>897</v>
+      </c>
+      <c r="B332" t="s">
         <v>898</v>
       </c>
-      <c r="B332" t="s">
-        <v>899</v>
-      </c>
       <c r="C332" t="s">
-        <v>611</v>
+        <v>558</v>
       </c>
       <c r="D332" t="s">
         <v>5</v>
@@ -9338,13 +9326,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>899</v>
+      </c>
+      <c r="B333" t="s">
         <v>900</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
         <v>901</v>
-      </c>
-      <c r="C333" t="s">
-        <v>611</v>
       </c>
       <c r="D333" t="s">
         <v>5</v>
@@ -9358,7 +9346,7 @@
         <v>903</v>
       </c>
       <c r="C334" t="s">
-        <v>558</v>
+        <v>901</v>
       </c>
       <c r="D334" t="s">
         <v>5</v>
@@ -9386,7 +9374,7 @@
         <v>908</v>
       </c>
       <c r="C336" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="D336" t="s">
         <v>5</v>
@@ -9394,13 +9382,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B337" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C337" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D337" t="s">
         <v>5</v>
@@ -9408,13 +9396,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B338" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C338" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D338" t="s">
         <v>5</v>
@@ -9428,7 +9416,7 @@
         <v>916</v>
       </c>
       <c r="C339" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D339" t="s">
         <v>5</v>
@@ -9436,13 +9424,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>917</v>
+      </c>
+      <c r="B340" t="s">
         <v>918</v>
       </c>
-      <c r="B340" t="s">
-        <v>919</v>
-      </c>
       <c r="C340" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D340" t="s">
         <v>5</v>
@@ -9450,13 +9438,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>919</v>
+      </c>
+      <c r="B341" t="s">
         <v>920</v>
       </c>
-      <c r="B341" t="s">
+      <c r="C341" t="s">
         <v>921</v>
-      </c>
-      <c r="C341" t="s">
-        <v>914</v>
       </c>
       <c r="D341" t="s">
         <v>5</v>
@@ -9470,7 +9458,7 @@
         <v>923</v>
       </c>
       <c r="C342" t="s">
-        <v>914</v>
+        <v>841</v>
       </c>
       <c r="D342" t="s">
         <v>5</v>
@@ -9498,7 +9486,7 @@
         <v>928</v>
       </c>
       <c r="C344" t="s">
-        <v>846</v>
+        <v>929</v>
       </c>
       <c r="D344" t="s">
         <v>5</v>
@@ -9506,13 +9494,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B345" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C345" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D345" t="s">
         <v>5</v>
@@ -9520,13 +9508,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B346" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C346" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D346" t="s">
         <v>5</v>
@@ -9534,13 +9522,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B347" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C347" t="s">
-        <v>937</v>
+        <v>901</v>
       </c>
       <c r="D347" t="s">
         <v>5</v>
@@ -9568,7 +9556,7 @@
         <v>942</v>
       </c>
       <c r="C349" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="D349" t="s">
         <v>5</v>
@@ -9582,7 +9570,7 @@
         <v>944</v>
       </c>
       <c r="C350" t="s">
-        <v>945</v>
+        <v>906</v>
       </c>
       <c r="D350" t="s">
         <v>5</v>
@@ -9590,13 +9578,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>945</v>
+      </c>
+      <c r="B351" t="s">
         <v>946</v>
       </c>
-      <c r="B351" t="s">
+      <c r="C351" t="s">
         <v>947</v>
-      </c>
-      <c r="C351" t="s">
-        <v>914</v>
       </c>
       <c r="D351" t="s">
         <v>5</v>
@@ -9610,7 +9598,7 @@
         <v>949</v>
       </c>
       <c r="C352" t="s">
-        <v>911</v>
+        <v>950</v>
       </c>
       <c r="D352" t="s">
         <v>5</v>
@@ -9618,13 +9606,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>951</v>
+      </c>
+      <c r="B353" t="s">
+        <v>952</v>
+      </c>
+      <c r="C353" t="s">
         <v>950</v>
-      </c>
-      <c r="B353" t="s">
-        <v>951</v>
-      </c>
-      <c r="C353" t="s">
-        <v>952</v>
       </c>
       <c r="D353" t="s">
         <v>5</v>
@@ -9638,7 +9626,7 @@
         <v>954</v>
       </c>
       <c r="C354" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="D354" t="s">
         <v>5</v>
@@ -9646,13 +9634,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>955</v>
+      </c>
+      <c r="B355" t="s">
         <v>956</v>
       </c>
-      <c r="B355" t="s">
-        <v>957</v>
-      </c>
       <c r="C355" t="s">
-        <v>955</v>
+        <v>909</v>
       </c>
       <c r="D355" t="s">
         <v>5</v>
@@ -9660,13 +9648,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>957</v>
+      </c>
+      <c r="B356" t="s">
         <v>958</v>
       </c>
-      <c r="B356" t="s">
-        <v>959</v>
-      </c>
       <c r="C356" t="s">
-        <v>955</v>
+        <v>909</v>
       </c>
       <c r="D356" t="s">
         <v>5</v>
@@ -9674,13 +9662,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>959</v>
+      </c>
+      <c r="B357" t="s">
         <v>960</v>
       </c>
-      <c r="B357" t="s">
-        <v>961</v>
-      </c>
       <c r="C357" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D357" t="s">
         <v>5</v>
@@ -9688,13 +9676,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>961</v>
+      </c>
+      <c r="B358" t="s">
         <v>962</v>
       </c>
-      <c r="B358" t="s">
+      <c r="C358" t="s">
         <v>963</v>
-      </c>
-      <c r="C358" t="s">
-        <v>914</v>
       </c>
       <c r="D358" t="s">
         <v>5</v>
@@ -9708,7 +9696,7 @@
         <v>965</v>
       </c>
       <c r="C359" t="s">
-        <v>914</v>
+        <v>966</v>
       </c>
       <c r="D359" t="s">
         <v>5</v>
@@ -9716,13 +9704,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>967</v>
+      </c>
+      <c r="B360" t="s">
+        <v>968</v>
+      </c>
+      <c r="C360" t="s">
         <v>966</v>
-      </c>
-      <c r="B360" t="s">
-        <v>967</v>
-      </c>
-      <c r="C360" t="s">
-        <v>968</v>
       </c>
       <c r="D360" t="s">
         <v>5</v>
@@ -9750,7 +9738,7 @@
         <v>973</v>
       </c>
       <c r="C362" t="s">
-        <v>971</v>
+        <v>586</v>
       </c>
       <c r="D362" t="s">
         <v>5</v>
@@ -9778,7 +9766,7 @@
         <v>978</v>
       </c>
       <c r="C364" t="s">
-        <v>591</v>
+        <v>950</v>
       </c>
       <c r="D364" t="s">
         <v>5</v>
@@ -9792,7 +9780,7 @@
         <v>980</v>
       </c>
       <c r="C365" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="D365" t="s">
         <v>5</v>
@@ -9800,13 +9788,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>981</v>
+      </c>
+      <c r="B366" t="s">
         <v>982</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
         <v>983</v>
-      </c>
-      <c r="C366" t="s">
-        <v>955</v>
       </c>
       <c r="D366" t="s">
         <v>5</v>
@@ -9820,7 +9808,7 @@
         <v>985</v>
       </c>
       <c r="C367" t="s">
-        <v>955</v>
+        <v>986</v>
       </c>
       <c r="D367" t="s">
         <v>5</v>
@@ -9828,13 +9816,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B368" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C368" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D368" t="s">
         <v>5</v>
@@ -9842,13 +9830,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B369" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C369" t="s">
-        <v>991</v>
+        <v>841</v>
       </c>
       <c r="D369" t="s">
         <v>5</v>
@@ -9862,7 +9850,7 @@
         <v>993</v>
       </c>
       <c r="C370" t="s">
-        <v>994</v>
+        <v>966</v>
       </c>
       <c r="D370" t="s">
         <v>5</v>
@@ -9870,13 +9858,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>994</v>
+      </c>
+      <c r="B371" t="s">
         <v>995</v>
       </c>
-      <c r="B371" t="s">
-        <v>996</v>
-      </c>
       <c r="C371" t="s">
-        <v>846</v>
+        <v>950</v>
       </c>
       <c r="D371" t="s">
         <v>5</v>
@@ -9884,13 +9872,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>996</v>
+      </c>
+      <c r="B372" t="s">
         <v>997</v>
       </c>
-      <c r="B372" t="s">
-        <v>998</v>
-      </c>
       <c r="C372" t="s">
-        <v>971</v>
+        <v>558</v>
       </c>
       <c r="D372" t="s">
         <v>5</v>
@@ -9898,13 +9886,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>998</v>
+      </c>
+      <c r="B373" t="s">
         <v>999</v>
       </c>
-      <c r="B373" t="s">
+      <c r="C373" t="s">
         <v>1000</v>
-      </c>
-      <c r="C373" t="s">
-        <v>955</v>
       </c>
       <c r="D373" t="s">
         <v>5</v>
@@ -9918,7 +9906,7 @@
         <v>1002</v>
       </c>
       <c r="C374" t="s">
-        <v>558</v>
+        <v>1000</v>
       </c>
       <c r="D374" t="s">
         <v>5</v>
@@ -9932,7 +9920,7 @@
         <v>1004</v>
       </c>
       <c r="C375" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D375" t="s">
         <v>5</v>
@@ -9940,13 +9928,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B376" t="s">
         <v>1006</v>
       </c>
-      <c r="B376" t="s">
-        <v>1007</v>
-      </c>
       <c r="C376" t="s">
-        <v>1005</v>
+        <v>397</v>
       </c>
       <c r="D376" t="s">
         <v>5</v>
@@ -9954,13 +9942,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B377" t="s">
         <v>1008</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
         <v>1009</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1005</v>
       </c>
       <c r="D377" t="s">
         <v>5</v>
@@ -9974,7 +9962,7 @@
         <v>1011</v>
       </c>
       <c r="C378" t="s">
-        <v>397</v>
+        <v>1012</v>
       </c>
       <c r="D378" t="s">
         <v>5</v>
@@ -9982,13 +9970,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B379" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C379" t="s">
-        <v>1014</v>
+        <v>397</v>
       </c>
       <c r="D379" t="s">
         <v>5</v>
@@ -10016,7 +10004,7 @@
         <v>1019</v>
       </c>
       <c r="C381" t="s">
-        <v>397</v>
+        <v>1020</v>
       </c>
       <c r="D381" t="s">
         <v>5</v>
@@ -10024,13 +10012,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B382" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C382" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D382" t="s">
         <v>5</v>
@@ -10038,13 +10026,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C383" t="s">
         <v>1023</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1025</v>
       </c>
       <c r="D383" t="s">
         <v>5</v>
@@ -10072,7 +10060,7 @@
         <v>1030</v>
       </c>
       <c r="C385" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D385" t="s">
         <v>5</v>
@@ -10080,13 +10068,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B386" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C386" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D386" t="s">
         <v>5</v>
@@ -10094,13 +10082,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B387" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C387" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="D387" t="s">
         <v>5</v>
@@ -10114,7 +10102,7 @@
         <v>1038</v>
       </c>
       <c r="C388" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="D388" t="s">
         <v>5</v>
@@ -10122,13 +10110,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B389" t="s">
         <v>1040</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C389" t="s">
         <v>1041</v>
-      </c>
-      <c r="C389" t="s">
-        <v>1033</v>
       </c>
       <c r="D389" t="s">
         <v>5</v>
@@ -10136,13 +10124,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>404</v>
+      </c>
+      <c r="B390" t="s">
         <v>1042</v>
       </c>
-      <c r="B390" t="s">
-        <v>1043</v>
-      </c>
       <c r="C390" t="s">
-        <v>1033</v>
+        <v>406</v>
       </c>
       <c r="D390" t="s">
         <v>5</v>
@@ -10150,13 +10138,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B391" t="s">
         <v>1044</v>
       </c>
-      <c r="B391" t="s">
-        <v>1045</v>
-      </c>
       <c r="C391" t="s">
-        <v>1046</v>
+        <v>406</v>
       </c>
       <c r="D391" t="s">
         <v>5</v>
@@ -10164,13 +10152,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B392" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C392" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D392" t="s">
         <v>5</v>
@@ -10178,13 +10166,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B393" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C393" t="s">
-        <v>406</v>
+        <v>594</v>
       </c>
       <c r="D393" t="s">
         <v>5</v>
@@ -10192,13 +10180,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>409</v>
+        <v>1048</v>
       </c>
       <c r="B394" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C394" t="s">
         <v>1050</v>
-      </c>
-      <c r="C394" t="s">
-        <v>411</v>
       </c>
       <c r="D394" t="s">
         <v>5</v>
@@ -10212,7 +10200,7 @@
         <v>1052</v>
       </c>
       <c r="C395" t="s">
-        <v>599</v>
+        <v>1050</v>
       </c>
       <c r="D395" t="s">
         <v>5</v>
@@ -10240,7 +10228,7 @@
         <v>1057</v>
       </c>
       <c r="C397" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D397" t="s">
         <v>5</v>
@@ -10248,13 +10236,13 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C398" t="s">
         <v>1058</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C398" t="s">
-        <v>1060</v>
       </c>
       <c r="D398" t="s">
         <v>5</v>
@@ -10282,7 +10270,7 @@
         <v>1065</v>
       </c>
       <c r="C400" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="D400" t="s">
         <v>5</v>
@@ -10290,13 +10278,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C401" t="s">
         <v>1066</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C401" t="s">
-        <v>1068</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -10310,7 +10298,7 @@
         <v>1070</v>
       </c>
       <c r="C402" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="D402" t="s">
         <v>5</v>
@@ -10318,13 +10306,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B403" t="s">
         <v>1072</v>
       </c>
-      <c r="B403" t="s">
+      <c r="C403" t="s">
         <v>1073</v>
-      </c>
-      <c r="C403" t="s">
-        <v>1071</v>
       </c>
       <c r="D403" t="s">
         <v>5</v>
@@ -10338,7 +10326,7 @@
         <v>1075</v>
       </c>
       <c r="C404" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D404" t="s">
         <v>5</v>
@@ -10366,7 +10354,7 @@
         <v>1080</v>
       </c>
       <c r="C406" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="D406" t="s">
         <v>5</v>
@@ -10374,13 +10362,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C407" t="s">
         <v>1081</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C407" t="s">
-        <v>1083</v>
       </c>
       <c r="D407" t="s">
         <v>5</v>
@@ -10394,7 +10382,7 @@
         <v>1085</v>
       </c>
       <c r="C408" t="s">
-        <v>1086</v>
+        <v>205</v>
       </c>
       <c r="D408" t="s">
         <v>5</v>
@@ -10402,13 +10390,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B409" t="s">
         <v>1087</v>
       </c>
-      <c r="B409" t="s">
+      <c r="C409" t="s">
         <v>1088</v>
-      </c>
-      <c r="C409" t="s">
-        <v>1086</v>
       </c>
       <c r="D409" t="s">
         <v>5</v>
@@ -10422,7 +10410,7 @@
         <v>1090</v>
       </c>
       <c r="C410" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D410" t="s">
         <v>5</v>
@@ -10436,7 +10424,7 @@
         <v>1092</v>
       </c>
       <c r="C411" t="s">
-        <v>1093</v>
+        <v>431</v>
       </c>
       <c r="D411" t="s">
         <v>5</v>
@@ -10444,10 +10432,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B412" t="s">
         <v>1094</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1095</v>
       </c>
       <c r="C412" t="s">
         <v>431</v>
@@ -10458,10 +10446,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B413" t="s">
         <v>1096</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1097</v>
       </c>
       <c r="C413" t="s">
         <v>431</v>
@@ -10472,10 +10460,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B414" t="s">
         <v>1098</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1099</v>
       </c>
       <c r="C414" t="s">
         <v>431</v>
@@ -10486,10 +10474,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B415" t="s">
         <v>1100</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1101</v>
       </c>
       <c r="C415" t="s">
         <v>431</v>
@@ -10500,13 +10488,13 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B416" t="s">
         <v>1102</v>
       </c>
-      <c r="B416" t="s">
-        <v>1103</v>
-      </c>
       <c r="C416" t="s">
-        <v>431</v>
+        <v>1066</v>
       </c>
       <c r="D416" t="s">
         <v>5</v>
@@ -10514,10 +10502,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B417" t="s">
         <v>1104</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1105</v>
       </c>
       <c r="C417" t="s">
         <v>431</v>
@@ -10528,13 +10516,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B418" t="s">
         <v>1106</v>
       </c>
-      <c r="B418" t="s">
+      <c r="C418" t="s">
         <v>1107</v>
-      </c>
-      <c r="C418" t="s">
-        <v>1071</v>
       </c>
       <c r="D418" t="s">
         <v>5</v>
@@ -10548,7 +10536,7 @@
         <v>1109</v>
       </c>
       <c r="C419" t="s">
-        <v>431</v>
+        <v>1107</v>
       </c>
       <c r="D419" t="s">
         <v>5</v>
@@ -10556,13 +10544,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>222</v>
+      </c>
+      <c r="B420" t="s">
         <v>1110</v>
       </c>
-      <c r="B420" t="s">
-        <v>1111</v>
-      </c>
       <c r="C420" t="s">
-        <v>1112</v>
+        <v>226</v>
       </c>
       <c r="D420" t="s">
         <v>5</v>
@@ -10570,13 +10558,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C421" t="s">
         <v>1113</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1112</v>
       </c>
       <c r="D421" t="s">
         <v>5</v>
@@ -10584,13 +10572,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>222</v>
+        <v>1114</v>
       </c>
       <c r="B422" t="s">
         <v>1115</v>
       </c>
       <c r="C422" t="s">
-        <v>226</v>
+        <v>1113</v>
       </c>
       <c r="D422" t="s">
         <v>5</v>
@@ -10604,7 +10592,7 @@
         <v>1117</v>
       </c>
       <c r="C423" t="s">
-        <v>1118</v>
+        <v>431</v>
       </c>
       <c r="D423" t="s">
         <v>5</v>
@@ -10612,13 +10600,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B424" t="s">
         <v>1119</v>
       </c>
-      <c r="B424" t="s">
-        <v>1120</v>
-      </c>
       <c r="C424" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="D424" t="s">
         <v>5</v>
@@ -10626,13 +10614,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B425" t="s">
         <v>1121</v>
       </c>
-      <c r="B425" t="s">
+      <c r="C425" t="s">
         <v>1122</v>
-      </c>
-      <c r="C425" t="s">
-        <v>431</v>
       </c>
       <c r="D425" t="s">
         <v>5</v>
@@ -10646,7 +10634,7 @@
         <v>1124</v>
       </c>
       <c r="C426" t="s">
-        <v>1112</v>
+        <v>416</v>
       </c>
       <c r="D426" t="s">
         <v>5</v>
@@ -10674,7 +10662,7 @@
         <v>1129</v>
       </c>
       <c r="C428" t="s">
-        <v>416</v>
+        <v>1127</v>
       </c>
       <c r="D428" t="s">
         <v>5</v>
@@ -10702,7 +10690,7 @@
         <v>1134</v>
       </c>
       <c r="C430" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="D430" t="s">
         <v>5</v>
@@ -10710,13 +10698,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B431" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C431" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D431" t="s">
         <v>5</v>
@@ -10724,13 +10712,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B432" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C432" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D432" t="s">
         <v>5</v>
@@ -10738,13 +10726,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B433" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C433" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D433" t="s">
         <v>5</v>
@@ -10752,13 +10740,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B434" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C434" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D434" t="s">
         <v>5</v>
@@ -10766,13 +10754,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B435" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C435" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D435" t="s">
         <v>5</v>
@@ -10780,13 +10768,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B436" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C436" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D436" t="s">
         <v>5</v>
@@ -10794,13 +10782,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B437" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C437" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D437" t="s">
         <v>5</v>
@@ -10808,13 +10796,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B438" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C438" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D438" t="s">
         <v>5</v>
@@ -10822,13 +10810,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B439" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C439" t="s">
-        <v>1161</v>
+        <v>1122</v>
       </c>
       <c r="D439" t="s">
         <v>5</v>
@@ -10856,7 +10844,7 @@
         <v>1166</v>
       </c>
       <c r="C441" t="s">
-        <v>1127</v>
+        <v>1167</v>
       </c>
       <c r="D441" t="s">
         <v>5</v>
@@ -10864,13 +10852,13 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B442" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C442" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D442" t="s">
         <v>5</v>
@@ -10878,13 +10866,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B443" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C443" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D443" t="s">
         <v>5</v>
@@ -10892,13 +10880,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B444" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C444" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D444" t="s">
         <v>5</v>
@@ -10906,13 +10894,13 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B445" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C445" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D445" t="s">
         <v>5</v>
@@ -10920,13 +10908,13 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B446" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C446" t="s">
-        <v>1181</v>
+        <v>431</v>
       </c>
       <c r="D446" t="s">
         <v>5</v>
@@ -10940,7 +10928,7 @@
         <v>1183</v>
       </c>
       <c r="C447" t="s">
-        <v>1184</v>
+        <v>1088</v>
       </c>
       <c r="D447" t="s">
         <v>5</v>
@@ -10948,13 +10936,13 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B448" t="s">
         <v>1185</v>
       </c>
-      <c r="B448" t="s">
+      <c r="C448" t="s">
         <v>1186</v>
-      </c>
-      <c r="C448" t="s">
-        <v>431</v>
       </c>
       <c r="D448" t="s">
         <v>5</v>
@@ -10968,7 +10956,7 @@
         <v>1188</v>
       </c>
       <c r="C449" t="s">
-        <v>1093</v>
+        <v>1189</v>
       </c>
       <c r="D449" t="s">
         <v>5</v>
@@ -10976,13 +10964,13 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B450" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C450" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D450" t="s">
         <v>5</v>
@@ -10990,13 +10978,13 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B451" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C451" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D451" t="s">
         <v>5</v>
@@ -11004,13 +10992,13 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B452" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C452" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D452" t="s">
         <v>5</v>
@@ -11018,13 +11006,13 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B453" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C453" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D453" t="s">
         <v>5</v>
@@ -11032,13 +11020,13 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C454" t="s">
         <v>1201</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C454" t="s">
-        <v>1203</v>
       </c>
       <c r="D454" t="s">
         <v>5</v>
@@ -11052,7 +11040,7 @@
         <v>1205</v>
       </c>
       <c r="C455" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="D455" t="s">
         <v>5</v>
@@ -11060,13 +11048,13 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B456" t="s">
         <v>1207</v>
       </c>
-      <c r="B456" t="s">
+      <c r="C456" t="s">
         <v>1208</v>
-      </c>
-      <c r="C456" t="s">
-        <v>1206</v>
       </c>
       <c r="D456" t="s">
         <v>5</v>
@@ -11080,7 +11068,7 @@
         <v>1210</v>
       </c>
       <c r="C457" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="D457" t="s">
         <v>5</v>
@@ -11088,13 +11076,13 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B458" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C458" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D458" t="s">
         <v>5</v>
@@ -11102,13 +11090,13 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B459" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C459" t="s">
-        <v>1216</v>
+        <v>1192</v>
       </c>
       <c r="D459" t="s">
         <v>5</v>
@@ -11136,7 +11124,7 @@
         <v>1221</v>
       </c>
       <c r="C461" t="s">
-        <v>1197</v>
+        <v>1222</v>
       </c>
       <c r="D461" t="s">
         <v>5</v>
@@ -11144,13 +11132,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B462" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C462" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D462" t="s">
         <v>5</v>
@@ -11158,13 +11146,13 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B463" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C463" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D463" t="s">
         <v>5</v>
@@ -11172,13 +11160,13 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B464" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C464" t="s">
-        <v>1230</v>
+        <v>1192</v>
       </c>
       <c r="D464" t="s">
         <v>5</v>
@@ -11206,7 +11194,7 @@
         <v>1235</v>
       </c>
       <c r="C466" t="s">
-        <v>1197</v>
+        <v>1132</v>
       </c>
       <c r="D466" t="s">
         <v>5</v>
@@ -11220,7 +11208,7 @@
         <v>1237</v>
       </c>
       <c r="C467" t="s">
-        <v>1238</v>
+        <v>594</v>
       </c>
       <c r="D467" t="s">
         <v>5</v>
@@ -11228,13 +11216,13 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B468" t="s">
         <v>1239</v>
       </c>
-      <c r="B468" t="s">
-        <v>1240</v>
-      </c>
       <c r="C468" t="s">
-        <v>1137</v>
+        <v>594</v>
       </c>
       <c r="D468" t="s">
         <v>5</v>
@@ -11242,13 +11230,13 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B469" t="s">
         <v>1241</v>
       </c>
-      <c r="B469" t="s">
+      <c r="C469" t="s">
         <v>1242</v>
-      </c>
-      <c r="C469" t="s">
-        <v>599</v>
       </c>
       <c r="D469" t="s">
         <v>5</v>
@@ -11262,7 +11250,7 @@
         <v>1244</v>
       </c>
       <c r="C470" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D470" t="s">
         <v>5</v>
@@ -11276,7 +11264,7 @@
         <v>1246</v>
       </c>
       <c r="C471" t="s">
-        <v>1247</v>
+        <v>1023</v>
       </c>
       <c r="D471" t="s">
         <v>5</v>
@@ -11284,13 +11272,13 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B472" t="s">
         <v>1248</v>
       </c>
-      <c r="B472" t="s">
-        <v>1249</v>
-      </c>
       <c r="C472" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D472" t="s">
         <v>5</v>
@@ -11298,13 +11286,13 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B473" t="s">
         <v>1250</v>
       </c>
-      <c r="B473" t="s">
-        <v>1251</v>
-      </c>
       <c r="C473" t="s">
-        <v>1028</v>
+        <v>594</v>
       </c>
       <c r="D473" t="s">
         <v>5</v>
@@ -11312,13 +11300,13 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B474" t="s">
         <v>1252</v>
       </c>
-      <c r="B474" t="s">
-        <v>1253</v>
-      </c>
       <c r="C474" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D474" t="s">
         <v>5</v>
@@ -11326,13 +11314,13 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B475" t="s">
         <v>1254</v>
       </c>
-      <c r="B475" t="s">
+      <c r="C475" t="s">
         <v>1255</v>
-      </c>
-      <c r="C475" t="s">
-        <v>599</v>
       </c>
       <c r="D475" t="s">
         <v>5</v>
@@ -11346,7 +11334,7 @@
         <v>1257</v>
       </c>
       <c r="C476" t="s">
-        <v>599</v>
+        <v>1258</v>
       </c>
       <c r="D476" t="s">
         <v>5</v>
@@ -11354,13 +11342,13 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C477" t="s">
         <v>1258</v>
-      </c>
-      <c r="B477" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C477" t="s">
-        <v>1260</v>
       </c>
       <c r="D477" t="s">
         <v>5</v>
@@ -11374,7 +11362,7 @@
         <v>1262</v>
       </c>
       <c r="C478" t="s">
-        <v>1263</v>
+        <v>594</v>
       </c>
       <c r="D478" t="s">
         <v>5</v>
@@ -11382,13 +11370,13 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B479" t="s">
         <v>1264</v>
       </c>
-      <c r="B479" t="s">
+      <c r="C479" t="s">
         <v>1265</v>
-      </c>
-      <c r="C479" t="s">
-        <v>1263</v>
       </c>
       <c r="D479" t="s">
         <v>5</v>
@@ -11402,7 +11390,7 @@
         <v>1267</v>
       </c>
       <c r="C480" t="s">
-        <v>599</v>
+        <v>1268</v>
       </c>
       <c r="D480" t="s">
         <v>5</v>
@@ -11410,13 +11398,13 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B481" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C481" t="s">
-        <v>1270</v>
+        <v>388</v>
       </c>
       <c r="D481" t="s">
         <v>5</v>
@@ -11430,7 +11418,7 @@
         <v>1272</v>
       </c>
       <c r="C482" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="D482" t="s">
         <v>5</v>
@@ -11438,13 +11426,13 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B483" t="s">
         <v>1274</v>
       </c>
-      <c r="B483" t="s">
+      <c r="C483" t="s">
         <v>1275</v>
-      </c>
-      <c r="C483" t="s">
-        <v>388</v>
       </c>
       <c r="D483" t="s">
         <v>5</v>
@@ -11458,7 +11446,7 @@
         <v>1277</v>
       </c>
       <c r="C484" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="D484" t="s">
         <v>5</v>
@@ -11466,13 +11454,13 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B485" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C485" t="s">
-        <v>1280</v>
+        <v>989</v>
       </c>
       <c r="D485" t="s">
         <v>5</v>
@@ -11486,7 +11474,7 @@
         <v>1282</v>
       </c>
       <c r="C486" t="s">
-        <v>1283</v>
+        <v>929</v>
       </c>
       <c r="D486" t="s">
         <v>5</v>
@@ -11494,13 +11482,13 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B487" t="s">
         <v>1284</v>
       </c>
-      <c r="B487" t="s">
+      <c r="C487" t="s">
         <v>1285</v>
-      </c>
-      <c r="C487" t="s">
-        <v>994</v>
       </c>
       <c r="D487" t="s">
         <v>5</v>
@@ -11514,7 +11502,7 @@
         <v>1287</v>
       </c>
       <c r="C488" t="s">
-        <v>934</v>
+        <v>192</v>
       </c>
       <c r="D488" t="s">
         <v>5</v>
@@ -11528,7 +11516,7 @@
         <v>1289</v>
       </c>
       <c r="C489" t="s">
-        <v>1290</v>
+        <v>192</v>
       </c>
       <c r="D489" t="s">
         <v>5</v>
@@ -11536,13 +11524,13 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B490" t="s">
         <v>1291</v>
       </c>
-      <c r="B490" t="s">
-        <v>1292</v>
-      </c>
       <c r="C490" t="s">
-        <v>192</v>
+        <v>1268</v>
       </c>
       <c r="D490" t="s">
         <v>5</v>
@@ -11550,13 +11538,13 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B491" t="s">
         <v>1293</v>
       </c>
-      <c r="B491" t="s">
-        <v>1294</v>
-      </c>
       <c r="C491" t="s">
-        <v>192</v>
+        <v>929</v>
       </c>
       <c r="D491" t="s">
         <v>5</v>
@@ -11564,13 +11552,13 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B492" t="s">
         <v>1295</v>
       </c>
-      <c r="B492" t="s">
+      <c r="C492" t="s">
         <v>1296</v>
-      </c>
-      <c r="C492" t="s">
-        <v>1273</v>
       </c>
       <c r="D492" t="s">
         <v>5</v>
@@ -11578,13 +11566,13 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>404</v>
+      </c>
+      <c r="B493" t="s">
         <v>1297</v>
       </c>
-      <c r="B493" t="s">
-        <v>1298</v>
-      </c>
       <c r="C493" t="s">
-        <v>934</v>
+        <v>406</v>
       </c>
       <c r="D493" t="s">
         <v>5</v>
@@ -11592,13 +11580,13 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B494" t="s">
         <v>1299</v>
       </c>
-      <c r="B494" t="s">
-        <v>1300</v>
-      </c>
       <c r="C494" t="s">
-        <v>1301</v>
+        <v>406</v>
       </c>
       <c r="D494" t="s">
         <v>5</v>
@@ -11606,13 +11594,13 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>404</v>
+        <v>1300</v>
       </c>
       <c r="B495" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C495" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D495" t="s">
         <v>5</v>
@@ -11620,13 +11608,13 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B496" t="s">
         <v>1303</v>
       </c>
-      <c r="B496" t="s">
+      <c r="C496" t="s">
         <v>1304</v>
-      </c>
-      <c r="C496" t="s">
-        <v>406</v>
       </c>
       <c r="D496" t="s">
         <v>5</v>
@@ -11640,7 +11628,7 @@
         <v>1306</v>
       </c>
       <c r="C497" t="s">
-        <v>411</v>
+        <v>1307</v>
       </c>
       <c r="D497" t="s">
         <v>5</v>
@@ -11648,13 +11636,13 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B498" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C498" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="D498" t="s">
         <v>5</v>
@@ -11682,7 +11670,7 @@
         <v>1314</v>
       </c>
       <c r="C500" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="D500" t="s">
         <v>5</v>
@@ -11690,13 +11678,13 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B501" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C501" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D501" t="s">
         <v>5</v>
@@ -11704,13 +11692,13 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B502" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C502" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D502" t="s">
         <v>5</v>
@@ -11718,13 +11706,13 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B503" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C503" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D503" t="s">
         <v>5</v>
@@ -11732,13 +11720,13 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B504" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C504" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D504" t="s">
         <v>5</v>
@@ -11746,13 +11734,13 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B505" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C505" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D505" t="s">
         <v>5</v>
@@ -11760,13 +11748,13 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B506" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C506" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D506" t="s">
         <v>5</v>
@@ -11774,13 +11762,13 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B507" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C507" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D507" t="s">
         <v>5</v>
@@ -11788,13 +11776,13 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B508" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C508" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D508" t="s">
         <v>5</v>
@@ -11802,13 +11790,13 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B509" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C509" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D509" t="s">
         <v>5</v>
@@ -11816,13 +11804,13 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B510" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C510" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D510" t="s">
         <v>5</v>
@@ -11830,13 +11818,13 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B511" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C511" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D511" t="s">
         <v>5</v>
@@ -11844,13 +11832,13 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B512" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C512" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D512" t="s">
         <v>5</v>
@@ -11858,13 +11846,13 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B513" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C513" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D513" t="s">
         <v>5</v>
@@ -11872,13 +11860,13 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B514" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C514" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D514" t="s">
         <v>5</v>
@@ -11886,13 +11874,13 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B515" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C515" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D515" t="s">
         <v>5</v>
@@ -11900,13 +11888,13 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B516" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C516" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D516" t="s">
         <v>5</v>
@@ -11914,13 +11902,13 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B517" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C517" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D517" t="s">
         <v>5</v>
@@ -11928,13 +11916,13 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B518" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C518" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D518" t="s">
         <v>5</v>
@@ -11942,13 +11930,13 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B519" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C519" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D519" t="s">
         <v>5</v>
@@ -11956,13 +11944,13 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B520" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C520" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D520" t="s">
         <v>5</v>
@@ -11970,13 +11958,13 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B521" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C521" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D521" t="s">
         <v>5</v>
@@ -11984,13 +11972,13 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B522" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C522" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="D522" t="s">
         <v>5</v>
@@ -12018,7 +12006,7 @@
         <v>1385</v>
       </c>
       <c r="C524" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D524" t="s">
         <v>5</v>
@@ -12032,7 +12020,7 @@
         <v>1387</v>
       </c>
       <c r="C525" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="D525" t="s">
         <v>5</v>
@@ -12040,13 +12028,13 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B526" t="s">
         <v>1389</v>
       </c>
-      <c r="B526" t="s">
+      <c r="C526" t="s">
         <v>1390</v>
-      </c>
-      <c r="C526" t="s">
-        <v>1383</v>
       </c>
       <c r="D526" t="s">
         <v>5</v>
@@ -12060,7 +12048,7 @@
         <v>1392</v>
       </c>
       <c r="C527" t="s">
-        <v>1383</v>
+        <v>1393</v>
       </c>
       <c r="D527" t="s">
         <v>5</v>
@@ -12068,13 +12056,13 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C528" t="s">
         <v>1393</v>
-      </c>
-      <c r="B528" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C528" t="s">
-        <v>1395</v>
       </c>
       <c r="D528" t="s">
         <v>5</v>
@@ -12082,13 +12070,13 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B529" t="s">
         <v>1396</v>
       </c>
-      <c r="B529" t="s">
+      <c r="C529" t="s">
         <v>1397</v>
-      </c>
-      <c r="C529" t="s">
-        <v>1398</v>
       </c>
       <c r="D529" t="s">
         <v>5</v>
@@ -12096,13 +12084,13 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C530" t="s">
         <v>1399</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C530" t="s">
-        <v>1398</v>
       </c>
       <c r="D530" t="s">
         <v>5</v>
@@ -12110,7 +12098,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="B531" t="s">
         <v>1401</v>
@@ -12124,43 +12112,15 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="B532" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C532" t="s">
-        <v>1404</v>
+        <v>1023</v>
       </c>
       <c r="D532" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B533" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D533" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B534" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C534" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D534" t="s">
         <v>5</v>
       </c>
     </row>

--- a/faq_tributarias.xlsx
+++ b/faq_tributarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12 VASEbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AFCCDA-EDD1-45CE-A536-B012F179F31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C043A830-0894-4767-971D-1CE1A8F6FC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1449,9 +1449,6 @@
     <t>¿Qué actividades o contribuyentes están excluidos del RUS?</t>
   </si>
   <si>
-    <t>Están excluidos los contribuyentes que presten servicios profesionales, los que realicen la primera venta de un inmueble, los que realicen actividades de construcción y los que realicen ventas de bienes con un valor superior a S/ 500 por cada venta.</t>
-  </si>
-  <si>
     <t>¿Qué sucede si un contribuyente del RUS supera el límite de ventas o compras?</t>
   </si>
   <si>
@@ -4373,6 +4370,9 @@
   </si>
   <si>
     <t>Base legal</t>
+  </si>
+  <si>
+    <t>Están excluidos los contribuyentes que presten servicios profesionales, los que realicen la primera venta de un inmueble, los que realicen actividades de construcción y los que realicen ventas de bienes con un valor superior a USD 500 por cada venta en zona de frontera.</t>
   </si>
 </sst>
 </file>
@@ -4794,14 +4794,14 @@
   <dimension ref="A1:E532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>20</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>23</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>28</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>31</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>34</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>37</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>39</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>42</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>45</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>48</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>51</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>54</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>57</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>60</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>63</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>66</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>69</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>72</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>75</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>78</v>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>81</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>84</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>87</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>90</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>93</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>96</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>99</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>102</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>105</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>108</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>111</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>114</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>117</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>120</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>123</v>
@@ -5532,7 +5532,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>126</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>129</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>132</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>135</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>141</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>144</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>147</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>150</v>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>153</v>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>156</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>159</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>162</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>165</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>168</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>171</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>177</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>180</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>183</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>186</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>189</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>2</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>194</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>196</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>199</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>202</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>205</v>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>208</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>210</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>213</v>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>215</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>218</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>221</v>
@@ -6110,7 +6110,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>223</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>226</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>229</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>232</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>234</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>237</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>239</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>242</v>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>245</v>
@@ -6263,10 +6263,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>248</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>250</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>253</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>256</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>259</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>261</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>263</v>
@@ -6382,7 +6382,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>265</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>268</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>271</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>274</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>277</v>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>280</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>282</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>285</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>287</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>289</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>292</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>295</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>298</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>301</v>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>304</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>307</v>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>310</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>313</v>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>316</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>319</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>322</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>325</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>327</v>
@@ -6773,7 +6773,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>330</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>333</v>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>336</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>339</v>
@@ -6841,7 +6841,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>342</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>345</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>348</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>350</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>353</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>355</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>358</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>361</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>364</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>367</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>370</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>372</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>375</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>378</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>381</v>
@@ -7096,7 +7096,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>384</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>387</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>390</v>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>393</v>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>396</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>399</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>402</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>405</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>407</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>410</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>412</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>415</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>418</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>421</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>424</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>427</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>430</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>433</v>
@@ -7402,7 +7402,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>435</v>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>438</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>441</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>444</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>447</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>450</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>453</v>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>455</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>458</v>
@@ -7555,7 +7555,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>461</v>
@@ -7572,10 +7572,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>464</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>466</v>
@@ -7606,13 +7606,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>469</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>470</v>
+        <v>1443</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>463</v>
@@ -7623,16 +7623,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>4</v>
@@ -7640,16 +7640,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>4</v>
@@ -7657,16 +7657,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>479</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>4</v>
@@ -7674,16 +7674,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="D170" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>4</v>
@@ -7691,16 +7691,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>4</v>
@@ -7708,16 +7708,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>486</v>
-      </c>
       <c r="D172" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>4</v>
@@ -7725,16 +7725,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>4</v>
@@ -7742,13 +7742,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>207</v>
@@ -7759,16 +7759,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="D175" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>4</v>
@@ -7776,16 +7776,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>4</v>
@@ -7793,16 +7793,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>499</v>
-      </c>
       <c r="D177" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>4</v>
@@ -7810,16 +7810,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="D178" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>4</v>
@@ -7827,16 +7827,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>4</v>
@@ -7844,16 +7844,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>4</v>
@@ -7861,16 +7861,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="D181" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>4</v>
@@ -7878,16 +7878,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="D182" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>4</v>
@@ -7895,16 +7895,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C183" s="3" t="s">
-        <v>515</v>
-      </c>
       <c r="D183" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>4</v>
@@ -7912,16 +7912,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C184" s="3" t="s">
-        <v>517</v>
-      </c>
       <c r="D184" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>4</v>
@@ -7929,16 +7929,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>519</v>
-      </c>
       <c r="D185" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>4</v>
@@ -7946,16 +7946,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>4</v>
@@ -7963,16 +7963,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>4</v>
@@ -7980,16 +7980,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="D188" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>4</v>
@@ -7997,16 +7997,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="D189" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>4</v>
@@ -8014,16 +8014,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="D190" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>4</v>
@@ -8031,16 +8031,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="D191" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>4</v>
@@ -8048,16 +8048,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="D192" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>4</v>
@@ -8065,16 +8065,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="D193" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>4</v>
@@ -8082,16 +8082,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>542</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>4</v>
@@ -8099,16 +8099,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="D195" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>4</v>
@@ -8116,16 +8116,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>4</v>
@@ -8133,16 +8133,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>551</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>4</v>
@@ -8150,16 +8150,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>4</v>
@@ -8167,16 +8167,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C199" s="3" t="s">
-        <v>556</v>
-      </c>
       <c r="D199" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>4</v>
@@ -8184,16 +8184,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="D200" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>4</v>
@@ -8201,16 +8201,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C201" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>4</v>
@@ -8218,13 +8218,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>207</v>
@@ -8235,16 +8235,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="D203" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>4</v>
@@ -8252,16 +8252,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="D204" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>569</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>4</v>
@@ -8269,16 +8269,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B205" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>571</v>
-      </c>
       <c r="D205" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>4</v>
@@ -8286,16 +8286,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>573</v>
-      </c>
       <c r="D206" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>4</v>
@@ -8303,16 +8303,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C207" s="3" t="s">
-        <v>575</v>
-      </c>
       <c r="D207" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>4</v>
@@ -8320,16 +8320,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="D208" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>4</v>
@@ -8337,16 +8337,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="D209" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>4</v>
@@ -8354,16 +8354,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="D210" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>4</v>
@@ -8371,16 +8371,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C211" s="3" t="s">
-        <v>586</v>
-      </c>
       <c r="D211" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>4</v>
@@ -8388,16 +8388,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="D212" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>4</v>
@@ -8405,16 +8405,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B213" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>591</v>
-      </c>
       <c r="D213" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>4</v>
@@ -8422,16 +8422,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C214" s="3" t="s">
-        <v>593</v>
-      </c>
       <c r="D214" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>4</v>
@@ -8439,16 +8439,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C215" s="3" t="s">
-        <v>595</v>
-      </c>
       <c r="D215" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>4</v>
@@ -8456,16 +8456,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="D216" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>4</v>
@@ -8473,16 +8473,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="D217" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>4</v>
@@ -8490,16 +8490,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B218" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C218" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>603</v>
-      </c>
       <c r="D218" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>4</v>
@@ -8507,16 +8507,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B219" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C219" s="3" t="s">
-        <v>605</v>
-      </c>
       <c r="D219" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>4</v>
@@ -8524,13 +8524,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B220" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>204</v>
@@ -8541,13 +8541,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>609</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>217</v>
@@ -8558,13 +8558,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B222" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>217</v>
@@ -8575,16 +8575,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="D223" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>4</v>
@@ -8592,16 +8592,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B224" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="D224" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>4</v>
@@ -8609,16 +8609,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B225" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C225" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="D225" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>4</v>
@@ -8626,16 +8626,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B226" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="D226" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>622</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>4</v>
@@ -8643,16 +8643,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C227" s="3" t="s">
-        <v>624</v>
-      </c>
       <c r="D227" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>4</v>
@@ -8660,16 +8660,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B228" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C228" s="3" t="s">
-        <v>626</v>
-      </c>
       <c r="D228" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>4</v>
@@ -8677,16 +8677,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C229" s="3" t="s">
-        <v>628</v>
-      </c>
       <c r="D229" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>4</v>
@@ -8694,16 +8694,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B230" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="C230" s="3" t="s">
-        <v>630</v>
-      </c>
       <c r="D230" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>4</v>
@@ -8711,16 +8711,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C231" s="3" t="s">
-        <v>632</v>
-      </c>
       <c r="D231" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>4</v>
@@ -8728,16 +8728,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C232" s="3" t="s">
-        <v>634</v>
-      </c>
       <c r="D232" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>4</v>
@@ -8745,16 +8745,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="D233" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>4</v>
@@ -8762,16 +8762,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B234" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="D234" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>640</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>4</v>
@@ -8779,16 +8779,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B235" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C235" s="3" t="s">
-        <v>642</v>
-      </c>
       <c r="D235" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>4</v>
@@ -8796,16 +8796,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C236" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D236" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>644</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>4</v>
@@ -8813,16 +8813,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="D237" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>647</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>4</v>
@@ -8830,16 +8830,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="D238" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>4</v>
@@ -8847,16 +8847,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B239" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="D239" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>653</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>4</v>
@@ -8864,16 +8864,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B240" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C240" s="3" t="s">
-        <v>655</v>
-      </c>
       <c r="D240" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>4</v>
@@ -8881,16 +8881,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B241" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="D241" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>4</v>
@@ -8898,16 +8898,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B242" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="D242" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>661</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>4</v>
@@ -8915,16 +8915,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C243" s="3" t="s">
-        <v>663</v>
-      </c>
       <c r="D243" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>4</v>
@@ -8932,16 +8932,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B244" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="D244" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>666</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>4</v>
@@ -8949,16 +8949,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B245" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="D245" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>669</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>4</v>
@@ -8966,16 +8966,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B246" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C246" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="D246" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>672</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>4</v>
@@ -8983,16 +8983,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B247" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="D247" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>675</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>4</v>
@@ -9000,16 +9000,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B248" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="D248" s="3" t="s">
         <v>677</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>678</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>4</v>
@@ -9017,16 +9017,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="D249" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>681</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>4</v>
@@ -9034,16 +9034,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B250" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="D250" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>684</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>4</v>
@@ -9051,16 +9051,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="D251" s="3" t="s">
         <v>686</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>687</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>4</v>
@@ -9068,16 +9068,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B252" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="D252" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>690</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>4</v>
@@ -9085,16 +9085,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B253" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="C253" s="3" t="s">
-        <v>692</v>
-      </c>
       <c r="D253" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>4</v>
@@ -9102,16 +9102,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B254" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="D254" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>695</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>4</v>
@@ -9119,16 +9119,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C255" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D255" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>4</v>
@@ -9136,16 +9136,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="D256" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>4</v>
@@ -9153,16 +9153,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B257" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="D257" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>703</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>4</v>
@@ -9170,16 +9170,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>705</v>
-      </c>
       <c r="D258" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>4</v>
@@ -9187,16 +9187,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B259" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="D259" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>708</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>4</v>
@@ -9204,16 +9204,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C260" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D260" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>710</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>4</v>
@@ -9221,16 +9221,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B261" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="D261" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>4</v>
@@ -9238,16 +9238,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B262" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="D262" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>716</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>4</v>
@@ -9255,16 +9255,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="D263" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>719</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>4</v>
@@ -9272,16 +9272,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="D264" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>4</v>
@@ -9289,16 +9289,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="D265" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>725</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>4</v>
@@ -9306,16 +9306,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="D266" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>4</v>
@@ -9323,16 +9323,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="D267" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>4</v>
@@ -9340,16 +9340,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="D268" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>734</v>
       </c>
       <c r="E268" s="3" t="s">
         <v>4</v>
@@ -9357,16 +9357,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B269" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C269" s="3" t="s">
-        <v>736</v>
-      </c>
       <c r="D269" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>4</v>
@@ -9374,16 +9374,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B270" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="D270" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>4</v>
@@ -9391,16 +9391,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="D271" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>4</v>
@@ -9408,16 +9408,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="D272" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>745</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>4</v>
@@ -9425,16 +9425,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C273" s="3" t="s">
-        <v>747</v>
-      </c>
       <c r="D273" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>4</v>
@@ -9442,16 +9442,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="D274" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>750</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>4</v>
@@ -9459,16 +9459,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="D275" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>753</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>4</v>
@@ -9476,16 +9476,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B276" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="D276" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>756</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>4</v>
@@ -9493,16 +9493,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="D277" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>759</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>4</v>
@@ -9510,16 +9510,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B278" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="C278" s="3" t="s">
-        <v>761</v>
-      </c>
       <c r="D278" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>4</v>
@@ -9527,16 +9527,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="C279" s="3" t="s">
-        <v>763</v>
-      </c>
       <c r="D279" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>4</v>
@@ -9544,16 +9544,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C280" s="3" t="s">
-        <v>765</v>
-      </c>
       <c r="D280" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>4</v>
@@ -9561,16 +9561,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B281" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="D281" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>4</v>
@@ -9578,16 +9578,16 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B282" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="D282" s="3" t="s">
         <v>770</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>771</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>4</v>
@@ -9595,16 +9595,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="D283" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>774</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>4</v>
@@ -9612,16 +9612,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B284" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="D284" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>777</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>4</v>
@@ -9629,16 +9629,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="C285" s="3" t="s">
-        <v>779</v>
-      </c>
       <c r="D285" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>4</v>
@@ -9646,16 +9646,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="C286" s="3" t="s">
-        <v>781</v>
-      </c>
       <c r="D286" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>4</v>
@@ -9663,16 +9663,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="D287" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>784</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>4</v>
@@ -9680,16 +9680,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="D288" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>787</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>4</v>
@@ -9697,16 +9697,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="C289" s="3" t="s">
-        <v>789</v>
-      </c>
       <c r="D289" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>4</v>
@@ -9714,16 +9714,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B290" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="D290" s="3" t="s">
         <v>791</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>792</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>4</v>
@@ -9731,16 +9731,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B291" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="C291" s="3" t="s">
-        <v>794</v>
-      </c>
       <c r="D291" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>4</v>
@@ -9748,16 +9748,16 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B292" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="D292" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>4</v>
@@ -9765,16 +9765,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B293" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="C293" s="3" t="s">
-        <v>799</v>
-      </c>
       <c r="D293" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>4</v>
@@ -9782,16 +9782,16 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="D294" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>802</v>
       </c>
       <c r="E294" s="3" t="s">
         <v>4</v>
@@ -9799,16 +9799,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B295" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="D295" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>4</v>
@@ -9816,16 +9816,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="C296" s="3" t="s">
-        <v>807</v>
-      </c>
       <c r="D296" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>4</v>
@@ -9833,16 +9833,16 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="C297" s="3" t="s">
-        <v>809</v>
-      </c>
       <c r="D297" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>4</v>
@@ -9850,16 +9850,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="C298" s="3" t="s">
-        <v>811</v>
-      </c>
       <c r="D298" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>4</v>
@@ -9867,16 +9867,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="C299" s="3" t="s">
-        <v>813</v>
-      </c>
       <c r="D299" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>4</v>
@@ -9884,16 +9884,16 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="C300" s="3" t="s">
-        <v>815</v>
-      </c>
       <c r="D300" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E300" s="3" t="s">
         <v>4</v>
@@ -9901,16 +9901,16 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B301" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="C301" s="3" t="s">
-        <v>817</v>
-      </c>
       <c r="D301" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E301" s="3" t="s">
         <v>4</v>
@@ -9918,16 +9918,16 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="D302" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>820</v>
       </c>
       <c r="E302" s="3" t="s">
         <v>4</v>
@@ -9935,16 +9935,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>4</v>
@@ -9952,16 +9952,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="C304" s="3" t="s">
-        <v>823</v>
-      </c>
       <c r="D304" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E304" s="3" t="s">
         <v>4</v>
@@ -9969,16 +9969,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B305" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="D305" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>826</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>4</v>
@@ -9986,16 +9986,16 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B306" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="C306" s="3" t="s">
-        <v>828</v>
-      </c>
       <c r="D306" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E306" s="3" t="s">
         <v>4</v>
@@ -10003,16 +10003,16 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B307" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="C307" s="3" t="s">
-        <v>830</v>
-      </c>
       <c r="D307" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E307" s="3" t="s">
         <v>4</v>
@@ -10020,16 +10020,16 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B308" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="D308" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>833</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>4</v>
@@ -10037,16 +10037,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="C309" s="3" t="s">
-        <v>835</v>
-      </c>
       <c r="D309" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E309" s="3" t="s">
         <v>4</v>
@@ -10054,16 +10054,16 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="C310" s="3" t="s">
-        <v>837</v>
-      </c>
       <c r="D310" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>4</v>
@@ -10071,16 +10071,16 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B311" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="C311" s="3" t="s">
-        <v>839</v>
-      </c>
       <c r="D311" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>4</v>
@@ -10088,16 +10088,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="C312" s="3" t="s">
-        <v>841</v>
-      </c>
       <c r="D312" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>4</v>
@@ -10105,16 +10105,16 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B313" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="D313" s="3" t="s">
         <v>843</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>844</v>
       </c>
       <c r="E313" s="3" t="s">
         <v>4</v>
@@ -10122,16 +10122,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="C314" s="3" t="s">
-        <v>846</v>
-      </c>
       <c r="D314" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E314" s="3" t="s">
         <v>4</v>
@@ -10139,16 +10139,16 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B315" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="D315" s="3" t="s">
         <v>848</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>849</v>
       </c>
       <c r="E315" s="3" t="s">
         <v>4</v>
@@ -10156,16 +10156,16 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B316" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="C316" s="3" t="s">
-        <v>851</v>
-      </c>
       <c r="D316" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E316" s="3" t="s">
         <v>4</v>
@@ -10173,16 +10173,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B317" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="D317" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>854</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>4</v>
@@ -10190,16 +10190,16 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E318" s="3" t="s">
         <v>4</v>
@@ -10207,16 +10207,16 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="C319" s="3" t="s">
-        <v>857</v>
-      </c>
       <c r="D319" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>4</v>
@@ -10224,16 +10224,16 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="D320" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>860</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>4</v>
@@ -10241,16 +10241,16 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B321" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C321" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="C321" s="3" t="s">
-        <v>862</v>
-      </c>
       <c r="D321" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E321" s="3" t="s">
         <v>4</v>
@@ -10258,16 +10258,16 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B322" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="C322" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="C322" s="3" t="s">
-        <v>864</v>
-      </c>
       <c r="D322" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E322" s="3" t="s">
         <v>4</v>
@@ -10275,16 +10275,16 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B323" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="D323" s="3" t="s">
         <v>866</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>867</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>4</v>
@@ -10292,16 +10292,16 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B324" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="D324" s="3" t="s">
         <v>869</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>870</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>4</v>
@@ -10309,16 +10309,16 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B325" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="D325" s="3" t="s">
         <v>872</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>873</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>4</v>
@@ -10326,16 +10326,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C326" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="D326" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>875</v>
       </c>
       <c r="E326" s="3" t="s">
         <v>4</v>
@@ -10343,16 +10343,16 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B327" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="D327" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>4</v>
@@ -10360,16 +10360,16 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B328" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="C328" s="3" t="s">
-        <v>880</v>
-      </c>
       <c r="D328" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>4</v>
@@ -10377,16 +10377,16 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>4</v>
@@ -10394,16 +10394,16 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="C330" s="3" t="s">
-        <v>883</v>
-      </c>
       <c r="D330" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>4</v>
@@ -10411,16 +10411,16 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B331" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="C331" s="3" t="s">
-        <v>885</v>
-      </c>
       <c r="D331" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>4</v>
@@ -10428,16 +10428,16 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B332" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="C332" s="3" t="s">
-        <v>887</v>
-      </c>
       <c r="D332" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>4</v>
@@ -10445,16 +10445,16 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B333" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="D333" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>890</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>4</v>
@@ -10462,16 +10462,16 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B334" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="C334" s="3" t="s">
-        <v>892</v>
-      </c>
       <c r="D334" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>4</v>
@@ -10479,16 +10479,16 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B335" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="D335" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>895</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>4</v>
@@ -10496,16 +10496,16 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="D336" s="3" t="s">
         <v>897</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>898</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>4</v>
@@ -10513,16 +10513,16 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B337" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="D337" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>901</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>4</v>
@@ -10530,16 +10530,16 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B338" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="C338" s="3" t="s">
-        <v>903</v>
-      </c>
       <c r="D338" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E338" s="3" t="s">
         <v>4</v>
@@ -10547,16 +10547,16 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B339" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C339" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="C339" s="3" t="s">
-        <v>905</v>
-      </c>
       <c r="D339" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E339" s="3" t="s">
         <v>4</v>
@@ -10564,16 +10564,16 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E340" s="3" t="s">
         <v>4</v>
@@ -10581,16 +10581,16 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B341" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C341" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="D341" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>909</v>
       </c>
       <c r="E341" s="3" t="s">
         <v>4</v>
@@ -10598,16 +10598,16 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B342" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C342" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="C342" s="3" t="s">
-        <v>911</v>
-      </c>
       <c r="D342" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E342" s="3" t="s">
         <v>4</v>
@@ -10615,16 +10615,16 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C343" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D343" s="3" t="s">
         <v>912</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>913</v>
       </c>
       <c r="E343" s="3" t="s">
         <v>4</v>
@@ -10632,16 +10632,16 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B344" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C344" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="D344" s="3" t="s">
         <v>915</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>916</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>4</v>
@@ -10649,16 +10649,16 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B345" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="C345" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="D345" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>919</v>
       </c>
       <c r="E345" s="3" t="s">
         <v>4</v>
@@ -10666,16 +10666,16 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B346" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C346" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="D346" s="3" t="s">
         <v>921</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>922</v>
       </c>
       <c r="E346" s="3" t="s">
         <v>4</v>
@@ -10683,16 +10683,16 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B347" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C347" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="C347" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="D347" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E347" s="3" t="s">
         <v>4</v>
@@ -10700,16 +10700,16 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B348" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="C348" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="D348" s="3" t="s">
         <v>926</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>927</v>
       </c>
       <c r="E348" s="3" t="s">
         <v>4</v>
@@ -10717,16 +10717,16 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="C349" s="3" t="s">
-        <v>929</v>
-      </c>
       <c r="D349" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E349" s="3" t="s">
         <v>4</v>
@@ -10734,16 +10734,16 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="C350" s="3" t="s">
-        <v>931</v>
-      </c>
       <c r="D350" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E350" s="3" t="s">
         <v>4</v>
@@ -10751,16 +10751,16 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B351" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="C351" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="D351" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>934</v>
       </c>
       <c r="E351" s="3" t="s">
         <v>4</v>
@@ -10768,16 +10768,16 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="D352" s="3" t="s">
         <v>936</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>937</v>
       </c>
       <c r="E352" s="3" t="s">
         <v>4</v>
@@ -10785,16 +10785,16 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B353" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="C353" s="3" t="s">
-        <v>939</v>
-      </c>
       <c r="D353" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E353" s="3" t="s">
         <v>4</v>
@@ -10802,16 +10802,16 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B354" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C354" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="C354" s="3" t="s">
-        <v>941</v>
-      </c>
       <c r="D354" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E354" s="3" t="s">
         <v>4</v>
@@ -10819,16 +10819,16 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B355" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C355" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="C355" s="3" t="s">
-        <v>943</v>
-      </c>
       <c r="D355" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E355" s="3" t="s">
         <v>4</v>
@@ -10836,16 +10836,16 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B356" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="C356" s="3" t="s">
-        <v>945</v>
-      </c>
       <c r="D356" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E356" s="3" t="s">
         <v>4</v>
@@ -10853,16 +10853,16 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="C357" s="3" t="s">
-        <v>947</v>
-      </c>
       <c r="D357" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>4</v>
@@ -10870,16 +10870,16 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B358" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="C358" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="D358" s="3" t="s">
         <v>949</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>950</v>
       </c>
       <c r="E358" s="3" t="s">
         <v>4</v>
@@ -10887,16 +10887,16 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C359" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="D359" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>952</v>
       </c>
       <c r="E359" s="3" t="s">
         <v>4</v>
@@ -10904,16 +10904,16 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E360" s="3" t="s">
         <v>4</v>
@@ -10921,16 +10921,16 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B361" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="D361" s="3" t="s">
         <v>955</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>956</v>
       </c>
       <c r="E361" s="3" t="s">
         <v>4</v>
@@ -10938,16 +10938,16 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>4</v>
@@ -10955,16 +10955,16 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="D363" s="3" t="s">
         <v>959</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>960</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>4</v>
@@ -10972,16 +10972,16 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>4</v>
@@ -10989,16 +10989,16 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="C365" s="3" t="s">
-        <v>963</v>
-      </c>
       <c r="D365" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E365" s="3" t="s">
         <v>4</v>
@@ -11006,16 +11006,16 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B366" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C366" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="D366" s="3" t="s">
         <v>965</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>966</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>4</v>
@@ -11023,16 +11023,16 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B367" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="D367" s="3" t="s">
         <v>968</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>969</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>4</v>
@@ -11040,16 +11040,16 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B368" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C368" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="D368" s="3" t="s">
         <v>971</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>972</v>
       </c>
       <c r="E368" s="3" t="s">
         <v>4</v>
@@ -11057,16 +11057,16 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B369" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="C369" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="C369" s="3" t="s">
-        <v>974</v>
-      </c>
       <c r="D369" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>4</v>
@@ -11074,16 +11074,16 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B370" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C370" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="C370" s="3" t="s">
-        <v>976</v>
-      </c>
       <c r="D370" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>4</v>
@@ -11091,16 +11091,16 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B371" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="C371" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="C371" s="3" t="s">
-        <v>978</v>
-      </c>
       <c r="D371" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>4</v>
@@ -11108,16 +11108,16 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B372" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C372" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="C372" s="3" t="s">
-        <v>980</v>
-      </c>
       <c r="D372" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>4</v>
@@ -11125,16 +11125,16 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C373" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="D373" s="3" t="s">
         <v>981</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>982</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>4</v>
@@ -11142,16 +11142,16 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B374" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C374" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="C374" s="3" t="s">
-        <v>984</v>
-      </c>
       <c r="D374" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>4</v>
@@ -11159,16 +11159,16 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B375" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C375" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="C375" s="3" t="s">
-        <v>986</v>
-      </c>
       <c r="D375" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E375" s="3" t="s">
         <v>4</v>
@@ -11176,13 +11176,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B376" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>987</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>988</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>395</v>
@@ -11193,16 +11193,16 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B377" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C377" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="C377" s="3" t="s">
+      <c r="D377" s="3" t="s">
         <v>990</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>991</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>4</v>
@@ -11210,16 +11210,16 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="D378" s="3" t="s">
         <v>993</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>994</v>
       </c>
       <c r="E378" s="3" t="s">
         <v>4</v>
@@ -11227,13 +11227,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B379" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C379" s="3" t="s">
         <v>995</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>996</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>395</v>
@@ -11244,16 +11244,16 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="C380" s="3" t="s">
+      <c r="D380" s="3" t="s">
         <v>998</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>999</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>4</v>
@@ -11261,16 +11261,16 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B381" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C381" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="D381" s="3" t="s">
         <v>1001</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>1002</v>
       </c>
       <c r="E381" s="3" t="s">
         <v>4</v>
@@ -11278,16 +11278,16 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B382" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C382" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="C382" s="3" t="s">
+      <c r="D382" s="3" t="s">
         <v>1004</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>1005</v>
       </c>
       <c r="E382" s="3" t="s">
         <v>4</v>
@@ -11295,16 +11295,16 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>4</v>
@@ -11312,16 +11312,16 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B384" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C384" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="C384" s="3" t="s">
+      <c r="D384" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>1009</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>4</v>
@@ -11329,16 +11329,16 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B385" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C385" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="C385" s="3" t="s">
+      <c r="D385" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="D385" s="3" t="s">
-        <v>1012</v>
       </c>
       <c r="E385" s="3" t="s">
         <v>4</v>
@@ -11346,16 +11346,16 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B386" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C386" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="C386" s="3" t="s">
+      <c r="D386" s="3" t="s">
         <v>1014</v>
-      </c>
-      <c r="D386" s="3" t="s">
-        <v>1015</v>
       </c>
       <c r="E386" s="3" t="s">
         <v>4</v>
@@ -11363,16 +11363,16 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B387" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C387" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="C387" s="3" t="s">
-        <v>1017</v>
-      </c>
       <c r="D387" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>4</v>
@@ -11380,16 +11380,16 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B388" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C388" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="C388" s="3" t="s">
-        <v>1019</v>
-      </c>
       <c r="D388" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>4</v>
@@ -11397,16 +11397,16 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B389" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C389" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="C389" s="3" t="s">
+      <c r="D389" s="3" t="s">
         <v>1021</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>1022</v>
       </c>
       <c r="E389" s="3" t="s">
         <v>4</v>
@@ -11414,13 +11414,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>402</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>404</v>
@@ -11431,13 +11431,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>1024</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>1025</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>404</v>
@@ -11448,13 +11448,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>407</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>409</v>
@@ -11465,16 +11465,16 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="C393" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="D393" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>4</v>
@@ -11482,16 +11482,16 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="C394" s="3" t="s">
+      <c r="D394" s="3" t="s">
         <v>1030</v>
-      </c>
-      <c r="D394" s="3" t="s">
-        <v>1031</v>
       </c>
       <c r="E394" s="3" t="s">
         <v>4</v>
@@ -11499,16 +11499,16 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B395" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C395" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="C395" s="3" t="s">
-        <v>1033</v>
-      </c>
       <c r="D395" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>4</v>
@@ -11516,16 +11516,16 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B396" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C396" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="C396" s="3" t="s">
+      <c r="D396" s="3" t="s">
         <v>1035</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>1036</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>4</v>
@@ -11533,16 +11533,16 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="C397" s="3" t="s">
+      <c r="D397" s="3" t="s">
         <v>1038</v>
-      </c>
-      <c r="D397" s="3" t="s">
-        <v>1039</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>4</v>
@@ -11550,16 +11550,16 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>4</v>
@@ -11567,16 +11567,16 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B399" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C399" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="C399" s="3" t="s">
+      <c r="D399" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>1043</v>
       </c>
       <c r="E399" s="3" t="s">
         <v>4</v>
@@ -11584,16 +11584,16 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B400" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C400" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="C400" s="3" t="s">
+      <c r="D400" s="3" t="s">
         <v>1045</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>1046</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>4</v>
@@ -11601,16 +11601,16 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B401" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C401" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="C401" s="3" t="s">
-        <v>1048</v>
-      </c>
       <c r="D401" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>4</v>
@@ -11618,16 +11618,16 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>4</v>
@@ -11635,16 +11635,16 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B403" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C403" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="C403" s="3" t="s">
+      <c r="D403" s="3" t="s">
         <v>1051</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>1052</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>4</v>
@@ -11652,16 +11652,16 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>4</v>
@@ -11669,16 +11669,16 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B405" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C405" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="C405" s="3" t="s">
+      <c r="D405" s="3" t="s">
         <v>1055</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>1056</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>4</v>
@@ -11686,16 +11686,16 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B406" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C406" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="C406" s="3" t="s">
+      <c r="D406" s="3" t="s">
         <v>1058</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>1059</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>4</v>
@@ -11703,16 +11703,16 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B407" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="C407" s="3" t="s">
-        <v>1061</v>
-      </c>
       <c r="D407" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>4</v>
@@ -11720,13 +11720,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B408" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C408" s="3" t="s">
         <v>1062</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>1063</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>204</v>
@@ -11737,16 +11737,16 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="C409" s="3" t="s">
+      <c r="D409" s="3" t="s">
         <v>1065</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>1066</v>
       </c>
       <c r="E409" s="3" t="s">
         <v>4</v>
@@ -11754,13 +11754,13 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>1067</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>1068</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>429</v>
@@ -11771,13 +11771,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B411" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C411" s="3" t="s">
         <v>1069</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>1070</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>429</v>
@@ -11788,13 +11788,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B412" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C412" s="3" t="s">
         <v>1071</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>1072</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>429</v>
@@ -11805,13 +11805,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>1073</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>1074</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>429</v>
@@ -11822,13 +11822,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B414" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C414" s="3" t="s">
         <v>1075</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>1076</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>429</v>
@@ -11839,13 +11839,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B415" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C415" s="3" t="s">
         <v>1077</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>1078</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>429</v>
@@ -11856,16 +11856,16 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B416" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C416" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="C416" s="3" t="s">
-        <v>1080</v>
-      </c>
       <c r="D416" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>4</v>
@@ -11873,13 +11873,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B417" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C417" s="3" t="s">
         <v>1081</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>1082</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>429</v>
@@ -11890,16 +11890,16 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B418" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="C418" s="3" t="s">
+      <c r="D418" s="3" t="s">
         <v>1084</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>1085</v>
       </c>
       <c r="E418" s="3" t="s">
         <v>4</v>
@@ -11907,16 +11907,16 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B419" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C419" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="C419" s="3" t="s">
-        <v>1087</v>
-      </c>
       <c r="D419" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E419" s="3" t="s">
         <v>4</v>
@@ -11924,13 +11924,13 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>225</v>
@@ -11941,16 +11941,16 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B421" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C421" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="C421" s="3" t="s">
+      <c r="D421" s="3" t="s">
         <v>1090</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>1091</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>4</v>
@@ -11958,16 +11958,16 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B422" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C422" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C422" s="3" t="s">
-        <v>1093</v>
-      </c>
       <c r="D422" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E422" s="3" t="s">
         <v>4</v>
@@ -11975,13 +11975,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B423" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C423" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>1095</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>429</v>
@@ -11992,16 +11992,16 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B424" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C424" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="C424" s="3" t="s">
-        <v>1097</v>
-      </c>
       <c r="D424" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>4</v>
@@ -12009,16 +12009,16 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B425" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="C425" s="3" t="s">
+      <c r="D425" s="3" t="s">
         <v>1099</v>
-      </c>
-      <c r="D425" s="3" t="s">
-        <v>1100</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>4</v>
@@ -12026,13 +12026,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B426" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C426" s="3" t="s">
         <v>1101</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>1102</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>414</v>
@@ -12043,16 +12043,16 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B427" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C427" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="C427" s="3" t="s">
+      <c r="D427" s="3" t="s">
         <v>1104</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>1105</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>4</v>
@@ -12060,16 +12060,16 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="C428" s="3" t="s">
-        <v>1107</v>
-      </c>
       <c r="D428" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E428" s="3" t="s">
         <v>4</v>
@@ -12077,16 +12077,16 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C429" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D429" s="3" t="s">
         <v>1108</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>1109</v>
       </c>
       <c r="E429" s="3" t="s">
         <v>4</v>
@@ -12094,16 +12094,16 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="C430" s="3" t="s">
+      <c r="D430" s="3" t="s">
         <v>1111</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>1112</v>
       </c>
       <c r="E430" s="3" t="s">
         <v>4</v>
@@ -12111,16 +12111,16 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="C431" s="3" t="s">
+      <c r="D431" s="3" t="s">
         <v>1114</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>1115</v>
       </c>
       <c r="E431" s="3" t="s">
         <v>4</v>
@@ -12128,16 +12128,16 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B432" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C432" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="C432" s="3" t="s">
+      <c r="D432" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="D432" s="3" t="s">
-        <v>1118</v>
       </c>
       <c r="E432" s="3" t="s">
         <v>4</v>
@@ -12145,16 +12145,16 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B433" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C433" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="C433" s="3" t="s">
+      <c r="D433" s="3" t="s">
         <v>1120</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>1121</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>4</v>
@@ -12162,16 +12162,16 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B434" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C434" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="C434" s="3" t="s">
+      <c r="D434" s="3" t="s">
         <v>1123</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>1124</v>
       </c>
       <c r="E434" s="3" t="s">
         <v>4</v>
@@ -12179,16 +12179,16 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B435" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C435" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="C435" s="3" t="s">
+      <c r="D435" s="3" t="s">
         <v>1126</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>1127</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>4</v>
@@ -12196,16 +12196,16 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B436" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C436" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="C436" s="3" t="s">
+      <c r="D436" s="3" t="s">
         <v>1129</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>1130</v>
       </c>
       <c r="E436" s="3" t="s">
         <v>4</v>
@@ -12213,16 +12213,16 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B437" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C437" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="C437" s="3" t="s">
+      <c r="D437" s="3" t="s">
         <v>1132</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>1133</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>4</v>
@@ -12230,16 +12230,16 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B438" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C438" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="C438" s="3" t="s">
+      <c r="D438" s="3" t="s">
         <v>1135</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>1136</v>
       </c>
       <c r="E438" s="3" t="s">
         <v>4</v>
@@ -12247,16 +12247,16 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B439" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C439" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="C439" s="3" t="s">
-        <v>1138</v>
-      </c>
       <c r="D439" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>4</v>
@@ -12264,16 +12264,16 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B440" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C440" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="C440" s="3" t="s">
+      <c r="D440" s="3" t="s">
         <v>1140</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>1141</v>
       </c>
       <c r="E440" s="3" t="s">
         <v>4</v>
@@ -12281,16 +12281,16 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B441" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C441" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="C441" s="3" t="s">
+      <c r="D441" s="3" t="s">
         <v>1143</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>1144</v>
       </c>
       <c r="E441" s="3" t="s">
         <v>4</v>
@@ -12298,16 +12298,16 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B442" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C442" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C442" s="3" t="s">
+      <c r="D442" s="3" t="s">
         <v>1146</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>1147</v>
       </c>
       <c r="E442" s="3" t="s">
         <v>4</v>
@@ -12315,16 +12315,16 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B443" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C443" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="C443" s="3" t="s">
+      <c r="D443" s="3" t="s">
         <v>1149</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>1150</v>
       </c>
       <c r="E443" s="3" t="s">
         <v>4</v>
@@ -12332,16 +12332,16 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B444" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C444" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="C444" s="3" t="s">
+      <c r="D444" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>1153</v>
       </c>
       <c r="E444" s="3" t="s">
         <v>4</v>
@@ -12349,16 +12349,16 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B445" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C445" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="C445" s="3" t="s">
+      <c r="D445" s="3" t="s">
         <v>1155</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>1156</v>
       </c>
       <c r="E445" s="3" t="s">
         <v>4</v>
@@ -12366,13 +12366,13 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B446" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C446" s="3" t="s">
         <v>1157</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>1158</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>429</v>
@@ -12383,16 +12383,16 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B447" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="C447" s="3" t="s">
-        <v>1160</v>
-      </c>
       <c r="D447" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>4</v>
@@ -12400,16 +12400,16 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B448" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C448" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="C448" s="3" t="s">
+      <c r="D448" s="3" t="s">
         <v>1162</v>
-      </c>
-      <c r="D448" s="3" t="s">
-        <v>1163</v>
       </c>
       <c r="E448" s="3" t="s">
         <v>4</v>
@@ -12417,16 +12417,16 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B449" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C449" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="C449" s="3" t="s">
+      <c r="D449" s="3" t="s">
         <v>1165</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>1166</v>
       </c>
       <c r="E449" s="3" t="s">
         <v>4</v>
@@ -12434,16 +12434,16 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B450" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C450" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="C450" s="3" t="s">
+      <c r="D450" s="3" t="s">
         <v>1168</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>1169</v>
       </c>
       <c r="E450" s="3" t="s">
         <v>4</v>
@@ -12451,16 +12451,16 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B451" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C451" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="C451" s="3" t="s">
+      <c r="D451" s="3" t="s">
         <v>1171</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>1172</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>4</v>
@@ -12468,16 +12468,16 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B452" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="C452" s="3" t="s">
+      <c r="D452" s="3" t="s">
         <v>1174</v>
-      </c>
-      <c r="D452" s="3" t="s">
-        <v>1175</v>
       </c>
       <c r="E452" s="3" t="s">
         <v>4</v>
@@ -12485,16 +12485,16 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B453" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C453" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="C453" s="3" t="s">
+      <c r="D453" s="3" t="s">
         <v>1177</v>
-      </c>
-      <c r="D453" s="3" t="s">
-        <v>1178</v>
       </c>
       <c r="E453" s="3" t="s">
         <v>4</v>
@@ -12502,16 +12502,16 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B454" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C454" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="C454" s="3" t="s">
-        <v>1180</v>
-      </c>
       <c r="D454" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E454" s="3" t="s">
         <v>4</v>
@@ -12519,16 +12519,16 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B455" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C455" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C455" s="3" t="s">
-        <v>1182</v>
-      </c>
       <c r="D455" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E455" s="3" t="s">
         <v>4</v>
@@ -12536,16 +12536,16 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B456" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C456" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="C456" s="3" t="s">
+      <c r="D456" s="3" t="s">
         <v>1184</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>1185</v>
       </c>
       <c r="E456" s="3" t="s">
         <v>4</v>
@@ -12553,16 +12553,16 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B457" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C457" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="C457" s="3" t="s">
+      <c r="D457" s="3" t="s">
         <v>1187</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>1188</v>
       </c>
       <c r="E457" s="3" t="s">
         <v>4</v>
@@ -12570,16 +12570,16 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B458" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C458" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="C458" s="3" t="s">
+      <c r="D458" s="3" t="s">
         <v>1190</v>
-      </c>
-      <c r="D458" s="3" t="s">
-        <v>1191</v>
       </c>
       <c r="E458" s="3" t="s">
         <v>4</v>
@@ -12587,16 +12587,16 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B459" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C459" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="C459" s="3" t="s">
-        <v>1193</v>
-      </c>
       <c r="D459" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E459" s="3" t="s">
         <v>4</v>
@@ -12604,16 +12604,16 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B460" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C460" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="C460" s="3" t="s">
+      <c r="D460" s="3" t="s">
         <v>1195</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>1196</v>
       </c>
       <c r="E460" s="3" t="s">
         <v>4</v>
@@ -12621,16 +12621,16 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B461" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="C461" s="3" t="s">
+      <c r="D461" s="3" t="s">
         <v>1198</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>1199</v>
       </c>
       <c r="E461" s="3" t="s">
         <v>4</v>
@@ -12638,16 +12638,16 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B462" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C462" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="C462" s="3" t="s">
+      <c r="D462" s="3" t="s">
         <v>1201</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>1202</v>
       </c>
       <c r="E462" s="3" t="s">
         <v>4</v>
@@ -12655,16 +12655,16 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B463" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C463" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="C463" s="3" t="s">
+      <c r="D463" s="3" t="s">
         <v>1204</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>1205</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>4</v>
@@ -12672,16 +12672,16 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B464" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C464" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="C464" s="3" t="s">
-        <v>1207</v>
-      </c>
       <c r="D464" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E464" s="3" t="s">
         <v>4</v>
@@ -12689,16 +12689,16 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B465" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C465" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="C465" s="3" t="s">
+      <c r="D465" s="3" t="s">
         <v>1209</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>1210</v>
       </c>
       <c r="E465" s="3" t="s">
         <v>4</v>
@@ -12706,16 +12706,16 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B466" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C466" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="C466" s="3" t="s">
-        <v>1212</v>
-      </c>
       <c r="D466" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E466" s="3" t="s">
         <v>4</v>
@@ -12723,16 +12723,16 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B467" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C467" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="C467" s="3" t="s">
-        <v>1214</v>
-      </c>
       <c r="D467" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E467" s="3" t="s">
         <v>4</v>
@@ -12740,16 +12740,16 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B468" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C468" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="C468" s="3" t="s">
-        <v>1216</v>
-      </c>
       <c r="D468" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E468" s="3" t="s">
         <v>4</v>
@@ -12757,16 +12757,16 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B469" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C469" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="C469" s="3" t="s">
+      <c r="D469" s="3" t="s">
         <v>1218</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>1219</v>
       </c>
       <c r="E469" s="3" t="s">
         <v>4</v>
@@ -12774,16 +12774,16 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="C470" s="3" t="s">
-        <v>1221</v>
-      </c>
       <c r="D470" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E470" s="3" t="s">
         <v>4</v>
@@ -12791,16 +12791,16 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B471" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C471" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="C471" s="3" t="s">
-        <v>1223</v>
-      </c>
       <c r="D471" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E471" s="3" t="s">
         <v>4</v>
@@ -12808,16 +12808,16 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B472" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C472" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="C472" s="3" t="s">
-        <v>1225</v>
-      </c>
       <c r="D472" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E472" s="3" t="s">
         <v>4</v>
@@ -12825,16 +12825,16 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B473" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C473" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="C473" s="3" t="s">
-        <v>1227</v>
-      </c>
       <c r="D473" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E473" s="3" t="s">
         <v>4</v>
@@ -12842,16 +12842,16 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B474" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C474" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="C474" s="3" t="s">
-        <v>1229</v>
-      </c>
       <c r="D474" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E474" s="3" t="s">
         <v>4</v>
@@ -12859,16 +12859,16 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B475" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C475" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="C475" s="3" t="s">
+      <c r="D475" s="3" t="s">
         <v>1231</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>1232</v>
       </c>
       <c r="E475" s="3" t="s">
         <v>4</v>
@@ -12876,16 +12876,16 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="C476" s="3" t="s">
+      <c r="D476" s="3" t="s">
         <v>1234</v>
-      </c>
-      <c r="D476" s="3" t="s">
-        <v>1235</v>
       </c>
       <c r="E476" s="3" t="s">
         <v>4</v>
@@ -12893,16 +12893,16 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B477" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C477" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="C477" s="3" t="s">
-        <v>1237</v>
-      </c>
       <c r="D477" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E477" s="3" t="s">
         <v>4</v>
@@ -12910,16 +12910,16 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E478" s="3" t="s">
         <v>4</v>
@@ -12927,16 +12927,16 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B479" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C479" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="C479" s="3" t="s">
+      <c r="D479" s="3" t="s">
         <v>1240</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>1241</v>
       </c>
       <c r="E479" s="3" t="s">
         <v>4</v>
@@ -12944,16 +12944,16 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B480" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C480" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="C480" s="3" t="s">
+      <c r="D480" s="3" t="s">
         <v>1243</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>1244</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>4</v>
@@ -12961,13 +12961,13 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B481" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C481" s="3" t="s">
         <v>1245</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>1246</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>386</v>
@@ -12978,16 +12978,16 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B482" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C482" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="C482" s="3" t="s">
-        <v>1248</v>
-      </c>
       <c r="D482" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E482" s="3" t="s">
         <v>4</v>
@@ -12995,16 +12995,16 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B483" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C483" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="C483" s="3" t="s">
+      <c r="D483" s="3" t="s">
         <v>1250</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>1251</v>
       </c>
       <c r="E483" s="3" t="s">
         <v>4</v>
@@ -13012,16 +13012,16 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B484" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C484" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="C484" s="3" t="s">
+      <c r="D484" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="E484" s="3" t="s">
         <v>4</v>
@@ -13029,16 +13029,16 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B485" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C485" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="C485" s="3" t="s">
-        <v>1256</v>
-      </c>
       <c r="D485" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E485" s="3" t="s">
         <v>4</v>
@@ -13046,16 +13046,16 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B486" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C486" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="C486" s="3" t="s">
-        <v>1258</v>
-      </c>
       <c r="D486" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E486" s="3" t="s">
         <v>4</v>
@@ -13063,16 +13063,16 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B487" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="C487" s="3" t="s">
+      <c r="D487" s="3" t="s">
         <v>1260</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>1261</v>
       </c>
       <c r="E487" s="3" t="s">
         <v>4</v>
@@ -13080,13 +13080,13 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B488" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C488" s="3" t="s">
         <v>1262</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>1263</v>
       </c>
       <c r="D488" s="3" t="s">
         <v>191</v>
@@ -13097,13 +13097,13 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B489" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C489" s="3" t="s">
         <v>1264</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>1265</v>
       </c>
       <c r="D489" s="3" t="s">
         <v>191</v>
@@ -13114,16 +13114,16 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B490" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C490" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="C490" s="3" t="s">
-        <v>1267</v>
-      </c>
       <c r="D490" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E490" s="3" t="s">
         <v>4</v>
@@ -13131,16 +13131,16 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B491" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C491" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="C491" s="3" t="s">
-        <v>1269</v>
-      </c>
       <c r="D491" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E491" s="3" t="s">
         <v>4</v>
@@ -13148,16 +13148,16 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B492" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="C492" s="3" t="s">
+      <c r="D492" s="3" t="s">
         <v>1271</v>
-      </c>
-      <c r="D492" s="3" t="s">
-        <v>1272</v>
       </c>
       <c r="E492" s="3" t="s">
         <v>4</v>
@@ -13165,13 +13165,13 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>402</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D493" s="3" t="s">
         <v>404</v>
@@ -13182,13 +13182,13 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>1274</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>1275</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>404</v>
@@ -13199,13 +13199,13 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B495" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C495" s="3" t="s">
         <v>1276</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>1277</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>409</v>
@@ -13216,16 +13216,16 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B496" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C496" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="C496" s="3" t="s">
+      <c r="D496" s="3" t="s">
         <v>1279</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>1280</v>
       </c>
       <c r="E496" s="3" t="s">
         <v>4</v>
@@ -13233,16 +13233,16 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B497" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C497" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="C497" s="3" t="s">
+      <c r="D497" s="3" t="s">
         <v>1282</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>1283</v>
       </c>
       <c r="E497" s="3" t="s">
         <v>4</v>
@@ -13250,16 +13250,16 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B498" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C498" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="C498" s="3" t="s">
-        <v>1285</v>
-      </c>
       <c r="D498" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E498" s="3" t="s">
         <v>4</v>
@@ -13267,16 +13267,16 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B499" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C499" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="C499" s="3" t="s">
+      <c r="D499" s="3" t="s">
         <v>1287</v>
-      </c>
-      <c r="D499" s="3" t="s">
-        <v>1288</v>
       </c>
       <c r="E499" s="3" t="s">
         <v>4</v>
@@ -13284,16 +13284,16 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B500" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C500" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="C500" s="3" t="s">
+      <c r="D500" s="3" t="s">
         <v>1290</v>
-      </c>
-      <c r="D500" s="3" t="s">
-        <v>1291</v>
       </c>
       <c r="E500" s="3" t="s">
         <v>4</v>
@@ -13301,16 +13301,16 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B501" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C501" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="C501" s="3" t="s">
+      <c r="D501" s="3" t="s">
         <v>1293</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>1294</v>
       </c>
       <c r="E501" s="3" t="s">
         <v>4</v>
@@ -13318,16 +13318,16 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B502" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C502" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="C502" s="3" t="s">
+      <c r="D502" s="3" t="s">
         <v>1296</v>
-      </c>
-      <c r="D502" s="3" t="s">
-        <v>1297</v>
       </c>
       <c r="E502" s="3" t="s">
         <v>4</v>
@@ -13335,16 +13335,16 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C503" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D503" s="3" t="s">
         <v>1298</v>
-      </c>
-      <c r="D503" s="3" t="s">
-        <v>1299</v>
       </c>
       <c r="E503" s="3" t="s">
         <v>4</v>
@@ -13352,16 +13352,16 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C504" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D504" s="3" t="s">
         <v>1300</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>1301</v>
       </c>
       <c r="E504" s="3" t="s">
         <v>4</v>
@@ -13369,16 +13369,16 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B505" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C505" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="C505" s="3" t="s">
+      <c r="D505" s="3" t="s">
         <v>1303</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>1304</v>
       </c>
       <c r="E505" s="3" t="s">
         <v>4</v>
@@ -13386,16 +13386,16 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B506" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C506" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="C506" s="3" t="s">
+      <c r="D506" s="3" t="s">
         <v>1306</v>
-      </c>
-      <c r="D506" s="3" t="s">
-        <v>1307</v>
       </c>
       <c r="E506" s="3" t="s">
         <v>4</v>
@@ -13403,16 +13403,16 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B507" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C507" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="C507" s="3" t="s">
+      <c r="D507" s="3" t="s">
         <v>1309</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>1310</v>
       </c>
       <c r="E507" s="3" t="s">
         <v>4</v>
@@ -13420,16 +13420,16 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B508" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C508" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="C508" s="3" t="s">
+      <c r="D508" s="3" t="s">
         <v>1312</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>1313</v>
       </c>
       <c r="E508" s="3" t="s">
         <v>4</v>
@@ -13437,16 +13437,16 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B509" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C509" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="C509" s="3" t="s">
+      <c r="D509" s="3" t="s">
         <v>1315</v>
-      </c>
-      <c r="D509" s="3" t="s">
-        <v>1316</v>
       </c>
       <c r="E509" s="3" t="s">
         <v>4</v>
@@ -13454,16 +13454,16 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C510" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D510" s="3" t="s">
         <v>1317</v>
-      </c>
-      <c r="D510" s="3" t="s">
-        <v>1318</v>
       </c>
       <c r="E510" s="3" t="s">
         <v>4</v>
@@ -13471,16 +13471,16 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C511" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D511" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="D511" s="3" t="s">
-        <v>1320</v>
       </c>
       <c r="E511" s="3" t="s">
         <v>4</v>
@@ -13488,16 +13488,16 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B512" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C512" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="C512" s="3" t="s">
+      <c r="D512" s="3" t="s">
         <v>1322</v>
-      </c>
-      <c r="D512" s="3" t="s">
-        <v>1323</v>
       </c>
       <c r="E512" s="3" t="s">
         <v>4</v>
@@ -13505,16 +13505,16 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B513" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C513" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="C513" s="3" t="s">
+      <c r="D513" s="3" t="s">
         <v>1325</v>
-      </c>
-      <c r="D513" s="3" t="s">
-        <v>1326</v>
       </c>
       <c r="E513" s="3" t="s">
         <v>4</v>
@@ -13522,16 +13522,16 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B514" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C514" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="C514" s="3" t="s">
+      <c r="D514" s="3" t="s">
         <v>1328</v>
-      </c>
-      <c r="D514" s="3" t="s">
-        <v>1329</v>
       </c>
       <c r="E514" s="3" t="s">
         <v>4</v>
@@ -13539,16 +13539,16 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B515" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C515" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="C515" s="3" t="s">
+      <c r="D515" s="3" t="s">
         <v>1331</v>
-      </c>
-      <c r="D515" s="3" t="s">
-        <v>1332</v>
       </c>
       <c r="E515" s="3" t="s">
         <v>4</v>
@@ -13556,16 +13556,16 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B516" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C516" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="C516" s="3" t="s">
+      <c r="D516" s="3" t="s">
         <v>1334</v>
-      </c>
-      <c r="D516" s="3" t="s">
-        <v>1335</v>
       </c>
       <c r="E516" s="3" t="s">
         <v>4</v>
@@ -13573,16 +13573,16 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B517" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C517" s="3" t="s">
         <v>1336</v>
       </c>
-      <c r="C517" s="3" t="s">
+      <c r="D517" s="3" t="s">
         <v>1337</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>1338</v>
       </c>
       <c r="E517" s="3" t="s">
         <v>4</v>
@@ -13590,16 +13590,16 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B518" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C518" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="C518" s="3" t="s">
+      <c r="D518" s="3" t="s">
         <v>1340</v>
-      </c>
-      <c r="D518" s="3" t="s">
-        <v>1341</v>
       </c>
       <c r="E518" s="3" t="s">
         <v>4</v>
@@ -13607,16 +13607,16 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B519" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C519" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="C519" s="3" t="s">
+      <c r="D519" s="3" t="s">
         <v>1343</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>1344</v>
       </c>
       <c r="E519" s="3" t="s">
         <v>4</v>
@@ -13624,16 +13624,16 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B520" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C520" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="C520" s="3" t="s">
+      <c r="D520" s="3" t="s">
         <v>1346</v>
-      </c>
-      <c r="D520" s="3" t="s">
-        <v>1347</v>
       </c>
       <c r="E520" s="3" t="s">
         <v>4</v>
@@ -13641,16 +13641,16 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B521" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C521" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="C521" s="3" t="s">
+      <c r="D521" s="3" t="s">
         <v>1349</v>
-      </c>
-      <c r="D521" s="3" t="s">
-        <v>1350</v>
       </c>
       <c r="E521" s="3" t="s">
         <v>4</v>
@@ -13658,16 +13658,16 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B522" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C522" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="C522" s="3" t="s">
-        <v>1352</v>
-      </c>
       <c r="D522" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E522" s="3" t="s">
         <v>4</v>
@@ -13675,16 +13675,16 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B523" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C523" s="3" t="s">
         <v>1353</v>
       </c>
-      <c r="C523" s="3" t="s">
+      <c r="D523" s="3" t="s">
         <v>1354</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>1355</v>
       </c>
       <c r="E523" s="3" t="s">
         <v>4</v>
@@ -13692,16 +13692,16 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B524" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C524" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="C524" s="3" t="s">
-        <v>1357</v>
-      </c>
       <c r="D524" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E524" s="3" t="s">
         <v>4</v>
@@ -13709,16 +13709,16 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B525" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C525" s="3" t="s">
         <v>1358</v>
       </c>
-      <c r="C525" s="3" t="s">
-        <v>1359</v>
-      </c>
       <c r="D525" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E525" s="3" t="s">
         <v>4</v>
@@ -13726,16 +13726,16 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B526" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C526" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="C526" s="3" t="s">
+      <c r="D526" s="3" t="s">
         <v>1361</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>1362</v>
       </c>
       <c r="E526" s="3" t="s">
         <v>4</v>
@@ -13743,16 +13743,16 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B527" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C527" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="C527" s="3" t="s">
+      <c r="D527" s="3" t="s">
         <v>1364</v>
-      </c>
-      <c r="D527" s="3" t="s">
-        <v>1365</v>
       </c>
       <c r="E527" s="3" t="s">
         <v>4</v>
@@ -13760,16 +13760,16 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B528" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C528" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="C528" s="3" t="s">
-        <v>1367</v>
-      </c>
       <c r="D528" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E528" s="3" t="s">
         <v>4</v>
@@ -13777,16 +13777,16 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C529" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D529" s="3" t="s">
         <v>1368</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>1369</v>
       </c>
       <c r="E529" s="3" t="s">
         <v>4</v>
@@ -13794,16 +13794,16 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C530" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D530" s="3" t="s">
         <v>1370</v>
-      </c>
-      <c r="D530" s="3" t="s">
-        <v>1371</v>
       </c>
       <c r="E530" s="3" t="s">
         <v>4</v>
@@ -13811,16 +13811,16 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B531" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C531" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="C531" s="3" t="s">
+      <c r="D531" s="3" t="s">
         <v>1373</v>
-      </c>
-      <c r="D531" s="3" t="s">
-        <v>1374</v>
       </c>
       <c r="E531" s="3" t="s">
         <v>4</v>
@@ -13828,16 +13828,16 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B532" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C532" s="3" t="s">
         <v>1375</v>
       </c>
-      <c r="C532" s="3" t="s">
-        <v>1376</v>
-      </c>
       <c r="D532" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E532" s="3" t="s">
         <v>4</v>
